--- a/Week/PivotTable/PivotTableoutput.xlsx
+++ b/Week/PivotTable/PivotTableoutput.xlsx
@@ -754,87 +754,87 @@
         </is>
       </c>
       <c r="B6">
-        <f>VLOOKUP(B5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(B5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="C6">
-        <f>VLOOKUP(C5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(C5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="D6">
-        <f>VLOOKUP(D5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(D5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="E6">
-        <f>VLOOKUP(E5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(E5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="F6">
-        <f>VLOOKUP(F5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(F5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="G6">
-        <f>VLOOKUP(G5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(G5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="H6">
-        <f>VLOOKUP(H5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(H5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="I6">
-        <f>VLOOKUP(I5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(I5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="J6">
-        <f>VLOOKUP(J5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(J5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="K6">
-        <f>VLOOKUP(K5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(K5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="L6">
-        <f>VLOOKUP(L5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(L5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="M6">
-        <f>VLOOKUP(M5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(M5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="N6">
-        <f>VLOOKUP(N5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(N5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="O6">
-        <f>VLOOKUP(O5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(O5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="P6">
-        <f>VLOOKUP(P5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(P5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="Q6">
-        <f>VLOOKUP(Q5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(Q5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="R6">
-        <f>VLOOKUP(R5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(R5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="S6">
-        <f>VLOOKUP(S5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(S5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="T6">
-        <f>VLOOKUP(T5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(T5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="U6">
-        <f>VLOOKUP(U5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(U5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="V6">
-        <f>VLOOKUP(V5,'C:\Users\HP\Desktop\TrimphPO\Week\RequiredFiles\[LocationDictionary.xlsx]Sheet1'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(V5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
     </row>

--- a/Week/PivotTable/PivotTableoutput.xlsx
+++ b/Week/PivotTable/PivotTableoutput.xlsx
@@ -754,87 +754,87 @@
         </is>
       </c>
       <c r="B6">
-        <f>VLOOKUP(B5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(B5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="C6">
-        <f>VLOOKUP(C5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(C5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="D6">
-        <f>VLOOKUP(D5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(D5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="E6">
-        <f>VLOOKUP(E5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(E5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="F6">
-        <f>VLOOKUP(F5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(F5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="G6">
-        <f>VLOOKUP(G5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(G5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="H6">
-        <f>VLOOKUP(H5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(H5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="I6">
-        <f>VLOOKUP(I5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(I5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="J6">
-        <f>VLOOKUP(J5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(J5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="K6">
-        <f>VLOOKUP(K5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(K5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="L6">
-        <f>VLOOKUP(L5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(L5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="M6">
-        <f>VLOOKUP(M5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(M5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="N6">
-        <f>VLOOKUP(N5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(N5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="O6">
-        <f>VLOOKUP(O5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(O5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="P6">
-        <f>VLOOKUP(P5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(P5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="Q6">
-        <f>VLOOKUP(Q5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(Q5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="R6">
-        <f>VLOOKUP(R5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(R5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="S6">
-        <f>VLOOKUP(S5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(S5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="T6">
-        <f>VLOOKUP(T5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(T5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="U6">
-        <f>VLOOKUP(U5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(U5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
       <c r="V6">
-        <f>VLOOKUP(V5,'C:\C-BIA\PurchaseOrder\Week\RequiredFiles\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
+        <f>VLOOKUP(V5,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[Location Master.xlsx]Location Master'!$A$2:$B$22,2,FALSE)</f>
         <v/>
       </c>
     </row>
@@ -884,8 +884,9 @@
         <f>SUM(B9:V9)</f>
         <v/>
       </c>
-      <c r="X9" t="n">
-        <v>0</v>
+      <c r="X9">
+        <f>VLOOKUP(A9,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y9">
         <f>X9-W9</f>
@@ -930,8 +931,9 @@
         <f>SUM(B10:V10)</f>
         <v/>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
+      <c r="X10">
+        <f>VLOOKUP(A10,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y10">
         <f>X10-W10</f>
@@ -979,8 +981,9 @@
         <f>SUM(B11:V11)</f>
         <v/>
       </c>
-      <c r="X11" t="n">
-        <v>0</v>
+      <c r="X11">
+        <f>VLOOKUP(A11,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y11">
         <f>X11-W11</f>
@@ -1010,8 +1013,9 @@
         <f>SUM(B12:V12)</f>
         <v/>
       </c>
-      <c r="X12" t="n">
-        <v>0</v>
+      <c r="X12">
+        <f>VLOOKUP(A12,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y12">
         <f>X12-W12</f>
@@ -1059,8 +1063,9 @@
         <f>SUM(B13:V13)</f>
         <v/>
       </c>
-      <c r="X13" t="n">
-        <v>0</v>
+      <c r="X13">
+        <f>VLOOKUP(A13,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y13">
         <f>X13-W13</f>
@@ -1108,8 +1113,9 @@
         <f>SUM(B14:V14)</f>
         <v/>
       </c>
-      <c r="X14" t="n">
-        <v>0</v>
+      <c r="X14">
+        <f>VLOOKUP(A14,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y14">
         <f>X14-W14</f>
@@ -1157,8 +1163,9 @@
         <f>SUM(B15:V15)</f>
         <v/>
       </c>
-      <c r="X15" t="n">
-        <v>0</v>
+      <c r="X15">
+        <f>VLOOKUP(A15,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y15">
         <f>X15-W15</f>
@@ -1209,8 +1216,9 @@
         <f>SUM(B16:V16)</f>
         <v/>
       </c>
-      <c r="X16" t="n">
-        <v>0</v>
+      <c r="X16">
+        <f>VLOOKUP(A16,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y16">
         <f>X16-W16</f>
@@ -1261,8 +1269,9 @@
         <f>SUM(B17:V17)</f>
         <v/>
       </c>
-      <c r="X17" t="n">
-        <v>0</v>
+      <c r="X17">
+        <f>VLOOKUP(A17,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y17">
         <f>X17-W17</f>
@@ -1307,8 +1316,9 @@
         <f>SUM(B18:V18)</f>
         <v/>
       </c>
-      <c r="X18" t="n">
-        <v>0</v>
+      <c r="X18">
+        <f>VLOOKUP(A18,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y18">
         <f>X18-W18</f>
@@ -1353,8 +1363,9 @@
         <f>SUM(B19:V19)</f>
         <v/>
       </c>
-      <c r="X19" t="n">
-        <v>0</v>
+      <c r="X19">
+        <f>VLOOKUP(A19,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y19">
         <f>X19-W19</f>
@@ -1405,8 +1416,9 @@
         <f>SUM(B20:V20)</f>
         <v/>
       </c>
-      <c r="X20" t="n">
-        <v>0</v>
+      <c r="X20">
+        <f>VLOOKUP(A20,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y20">
         <f>X20-W20</f>
@@ -1451,8 +1463,9 @@
         <f>SUM(B21:V21)</f>
         <v/>
       </c>
-      <c r="X21" t="n">
-        <v>0</v>
+      <c r="X21">
+        <f>VLOOKUP(A21,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y21">
         <f>X21-W21</f>
@@ -1479,8 +1492,9 @@
         <f>SUM(B22:V22)</f>
         <v/>
       </c>
-      <c r="X22" t="n">
-        <v>0</v>
+      <c r="X22">
+        <f>VLOOKUP(A22,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y22">
         <f>X22-W22</f>
@@ -1525,8 +1539,9 @@
         <f>SUM(B23:V23)</f>
         <v/>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
+      <c r="X23">
+        <f>VLOOKUP(A23,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y23">
         <f>X23-W23</f>
@@ -1565,8 +1580,9 @@
         <f>SUM(B24:V24)</f>
         <v/>
       </c>
-      <c r="X24" t="n">
-        <v>0</v>
+      <c r="X24">
+        <f>VLOOKUP(A24,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y24">
         <f>X24-W24</f>
@@ -1626,8 +1642,9 @@
         <f>SUM(B25:V25)</f>
         <v/>
       </c>
-      <c r="X25" t="n">
-        <v>0</v>
+      <c r="X25">
+        <f>VLOOKUP(A25,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y25">
         <f>X25-W25</f>
@@ -1663,8 +1680,9 @@
         <f>SUM(B26:V26)</f>
         <v/>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
+      <c r="X26">
+        <f>VLOOKUP(A26,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y26">
         <f>X26-W26</f>
@@ -1691,8 +1709,9 @@
         <f>SUM(B27:V27)</f>
         <v/>
       </c>
-      <c r="X27" t="n">
-        <v>0</v>
+      <c r="X27">
+        <f>VLOOKUP(A27,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y27">
         <f>X27-W27</f>
@@ -1737,8 +1756,9 @@
         <f>SUM(B28:V28)</f>
         <v/>
       </c>
-      <c r="X28" t="n">
-        <v>0</v>
+      <c r="X28">
+        <f>VLOOKUP(A28,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y28">
         <f>X28-W28</f>
@@ -1765,8 +1785,9 @@
         <f>SUM(B29:V29)</f>
         <v/>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
+      <c r="X29">
+        <f>VLOOKUP(A29,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y29">
         <f>X29-W29</f>
@@ -1799,8 +1820,9 @@
         <f>SUM(B30:V30)</f>
         <v/>
       </c>
-      <c r="X30" t="n">
-        <v>0</v>
+      <c r="X30">
+        <f>VLOOKUP(A30,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y30">
         <f>X30-W30</f>
@@ -1842,8 +1864,9 @@
         <f>SUM(B31:V31)</f>
         <v/>
       </c>
-      <c r="X31" t="n">
-        <v>0</v>
+      <c r="X31">
+        <f>VLOOKUP(A31,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y31">
         <f>X31-W31</f>
@@ -1888,8 +1911,9 @@
         <f>SUM(B32:V32)</f>
         <v/>
       </c>
-      <c r="X32" t="n">
-        <v>0</v>
+      <c r="X32">
+        <f>VLOOKUP(A32,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y32">
         <f>X32-W32</f>
@@ -1919,8 +1943,9 @@
         <f>SUM(B33:V33)</f>
         <v/>
       </c>
-      <c r="X33" t="n">
-        <v>0</v>
+      <c r="X33">
+        <f>VLOOKUP(A33,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y33">
         <f>X33-W33</f>
@@ -1944,8 +1969,9 @@
         <f>SUM(B34:V34)</f>
         <v/>
       </c>
-      <c r="X34" t="n">
-        <v>0</v>
+      <c r="X34">
+        <f>VLOOKUP(A34,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y34">
         <f>X34-W34</f>
@@ -1969,8 +1995,9 @@
         <f>SUM(B35:V35)</f>
         <v/>
       </c>
-      <c r="X35" t="n">
-        <v>0</v>
+      <c r="X35">
+        <f>VLOOKUP(A35,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y35">
         <f>X35-W35</f>
@@ -1994,8 +2021,9 @@
         <f>SUM(B36:V36)</f>
         <v/>
       </c>
-      <c r="X36" t="n">
-        <v>0</v>
+      <c r="X36">
+        <f>VLOOKUP(A36,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y36">
         <f>X36-W36</f>
@@ -2046,8 +2074,9 @@
         <f>SUM(B37:V37)</f>
         <v/>
       </c>
-      <c r="X37" t="n">
-        <v>0</v>
+      <c r="X37">
+        <f>VLOOKUP(A37,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y37">
         <f>X37-W37</f>
@@ -2074,8 +2103,9 @@
         <f>SUM(B38:V38)</f>
         <v/>
       </c>
-      <c r="X38" t="n">
-        <v>0</v>
+      <c r="X38">
+        <f>VLOOKUP(A38,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y38">
         <f>X38-W38</f>
@@ -2123,8 +2153,9 @@
         <f>SUM(B39:V39)</f>
         <v/>
       </c>
-      <c r="X39" t="n">
-        <v>0</v>
+      <c r="X39">
+        <f>VLOOKUP(A39,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y39">
         <f>X39-W39</f>
@@ -2163,8 +2194,9 @@
         <f>SUM(B40:V40)</f>
         <v/>
       </c>
-      <c r="X40" t="n">
-        <v>0</v>
+      <c r="X40">
+        <f>VLOOKUP(A40,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y40">
         <f>X40-W40</f>
@@ -2212,8 +2244,9 @@
         <f>SUM(B41:V41)</f>
         <v/>
       </c>
-      <c r="X41" t="n">
-        <v>0</v>
+      <c r="X41">
+        <f>VLOOKUP(A41,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y41">
         <f>X41-W41</f>
@@ -2258,8 +2291,9 @@
         <f>SUM(B42:V42)</f>
         <v/>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
+      <c r="X42">
+        <f>VLOOKUP(A42,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y42">
         <f>X42-W42</f>
@@ -2298,8 +2332,9 @@
         <f>SUM(B43:V43)</f>
         <v/>
       </c>
-      <c r="X43" t="n">
-        <v>0</v>
+      <c r="X43">
+        <f>VLOOKUP(A43,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y43">
         <f>X43-W43</f>
@@ -2347,8 +2382,9 @@
         <f>SUM(B44:V44)</f>
         <v/>
       </c>
-      <c r="X44" t="n">
-        <v>0</v>
+      <c r="X44">
+        <f>VLOOKUP(A44,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y44">
         <f>X44-W44</f>
@@ -2390,8 +2426,9 @@
         <f>SUM(B45:V45)</f>
         <v/>
       </c>
-      <c r="X45" t="n">
-        <v>0</v>
+      <c r="X45">
+        <f>VLOOKUP(A45,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y45">
         <f>X45-W45</f>
@@ -2436,8 +2473,9 @@
         <f>SUM(B46:V46)</f>
         <v/>
       </c>
-      <c r="X46" t="n">
-        <v>0</v>
+      <c r="X46">
+        <f>VLOOKUP(A46,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y46">
         <f>X46-W46</f>
@@ -2485,8 +2523,9 @@
         <f>SUM(B47:V47)</f>
         <v/>
       </c>
-      <c r="X47" t="n">
-        <v>0</v>
+      <c r="X47">
+        <f>VLOOKUP(A47,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y47">
         <f>X47-W47</f>
@@ -2534,8 +2573,9 @@
         <f>SUM(B48:V48)</f>
         <v/>
       </c>
-      <c r="X48" t="n">
-        <v>0</v>
+      <c r="X48">
+        <f>VLOOKUP(A48,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y48">
         <f>X48-W48</f>
@@ -2577,8 +2617,9 @@
         <f>SUM(B49:V49)</f>
         <v/>
       </c>
-      <c r="X49" t="n">
-        <v>0</v>
+      <c r="X49">
+        <f>VLOOKUP(A49,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y49">
         <f>X49-W49</f>
@@ -2620,8 +2661,9 @@
         <f>SUM(B50:V50)</f>
         <v/>
       </c>
-      <c r="X50" t="n">
-        <v>0</v>
+      <c r="X50">
+        <f>VLOOKUP(A50,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y50">
         <f>X50-W50</f>
@@ -2663,8 +2705,9 @@
         <f>SUM(B51:V51)</f>
         <v/>
       </c>
-      <c r="X51" t="n">
-        <v>0</v>
+      <c r="X51">
+        <f>VLOOKUP(A51,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y51">
         <f>X51-W51</f>
@@ -2706,8 +2749,9 @@
         <f>SUM(B52:V52)</f>
         <v/>
       </c>
-      <c r="X52" t="n">
-        <v>0</v>
+      <c r="X52">
+        <f>VLOOKUP(A52,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y52">
         <f>X52-W52</f>
@@ -2749,8 +2793,9 @@
         <f>SUM(B53:V53)</f>
         <v/>
       </c>
-      <c r="X53" t="n">
-        <v>0</v>
+      <c r="X53">
+        <f>VLOOKUP(A53,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y53">
         <f>X53-W53</f>
@@ -2792,8 +2837,9 @@
         <f>SUM(B54:V54)</f>
         <v/>
       </c>
-      <c r="X54" t="n">
-        <v>0</v>
+      <c r="X54">
+        <f>VLOOKUP(A54,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y54">
         <f>X54-W54</f>
@@ -2835,8 +2881,9 @@
         <f>SUM(B55:V55)</f>
         <v/>
       </c>
-      <c r="X55" t="n">
-        <v>0</v>
+      <c r="X55">
+        <f>VLOOKUP(A55,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y55">
         <f>X55-W55</f>
@@ -2878,8 +2925,9 @@
         <f>SUM(B56:V56)</f>
         <v/>
       </c>
-      <c r="X56" t="n">
-        <v>0</v>
+      <c r="X56">
+        <f>VLOOKUP(A56,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y56">
         <f>X56-W56</f>
@@ -2921,8 +2969,9 @@
         <f>SUM(B57:V57)</f>
         <v/>
       </c>
-      <c r="X57" t="n">
-        <v>0</v>
+      <c r="X57">
+        <f>VLOOKUP(A57,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y57">
         <f>X57-W57</f>
@@ -2964,8 +3013,9 @@
         <f>SUM(B58:V58)</f>
         <v/>
       </c>
-      <c r="X58" t="n">
-        <v>0</v>
+      <c r="X58">
+        <f>VLOOKUP(A58,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y58">
         <f>X58-W58</f>
@@ -2992,8 +3042,9 @@
         <f>SUM(B59:V59)</f>
         <v/>
       </c>
-      <c r="X59" t="n">
-        <v>0</v>
+      <c r="X59">
+        <f>VLOOKUP(A59,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y59">
         <f>X59-W59</f>
@@ -3032,8 +3083,9 @@
         <f>SUM(B60:V60)</f>
         <v/>
       </c>
-      <c r="X60" t="n">
-        <v>0</v>
+      <c r="X60">
+        <f>VLOOKUP(A60,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y60">
         <f>X60-W60</f>
@@ -3063,8 +3115,9 @@
         <f>SUM(B61:V61)</f>
         <v/>
       </c>
-      <c r="X61" t="n">
-        <v>0</v>
+      <c r="X61">
+        <f>VLOOKUP(A61,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y61">
         <f>X61-W61</f>
@@ -3100,8 +3153,9 @@
         <f>SUM(B62:V62)</f>
         <v/>
       </c>
-      <c r="X62" t="n">
-        <v>0</v>
+      <c r="X62">
+        <f>VLOOKUP(A62,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y62">
         <f>X62-W62</f>
@@ -3131,8 +3185,9 @@
         <f>SUM(B63:V63)</f>
         <v/>
       </c>
-      <c r="X63" t="n">
-        <v>0</v>
+      <c r="X63">
+        <f>VLOOKUP(A63,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y63">
         <f>X63-W63</f>
@@ -3165,8 +3220,9 @@
         <f>SUM(B64:V64)</f>
         <v/>
       </c>
-      <c r="X64" t="n">
-        <v>0</v>
+      <c r="X64">
+        <f>VLOOKUP(A64,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y64">
         <f>X64-W64</f>
@@ -3199,8 +3255,9 @@
         <f>SUM(B65:V65)</f>
         <v/>
       </c>
-      <c r="X65" t="n">
-        <v>0</v>
+      <c r="X65">
+        <f>VLOOKUP(A65,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y65">
         <f>X65-W65</f>
@@ -3236,8 +3293,9 @@
         <f>SUM(B66:V66)</f>
         <v/>
       </c>
-      <c r="X66" t="n">
-        <v>0</v>
+      <c r="X66">
+        <f>VLOOKUP(A66,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y66">
         <f>X66-W66</f>
@@ -3279,8 +3337,9 @@
         <f>SUM(B67:V67)</f>
         <v/>
       </c>
-      <c r="X67" t="n">
-        <v>0</v>
+      <c r="X67">
+        <f>VLOOKUP(A67,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y67">
         <f>X67-W67</f>
@@ -3310,8 +3369,9 @@
         <f>SUM(B68:V68)</f>
         <v/>
       </c>
-      <c r="X68" t="n">
-        <v>0</v>
+      <c r="X68">
+        <f>VLOOKUP(A68,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y68">
         <f>X68-W68</f>
@@ -3347,8 +3407,9 @@
         <f>SUM(B69:V69)</f>
         <v/>
       </c>
-      <c r="X69" t="n">
-        <v>0</v>
+      <c r="X69">
+        <f>VLOOKUP(A69,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y69">
         <f>X69-W69</f>
@@ -3402,8 +3463,9 @@
         <f>SUM(B70:V70)</f>
         <v/>
       </c>
-      <c r="X70" t="n">
-        <v>0</v>
+      <c r="X70">
+        <f>VLOOKUP(A70,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y70">
         <f>X70-W70</f>
@@ -3445,8 +3507,9 @@
         <f>SUM(B71:V71)</f>
         <v/>
       </c>
-      <c r="X71" t="n">
-        <v>0</v>
+      <c r="X71">
+        <f>VLOOKUP(A71,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y71">
         <f>X71-W71</f>
@@ -3488,8 +3551,9 @@
         <f>SUM(B72:V72)</f>
         <v/>
       </c>
-      <c r="X72" t="n">
-        <v>0</v>
+      <c r="X72">
+        <f>VLOOKUP(A72,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y72">
         <f>X72-W72</f>
@@ -3546,8 +3610,9 @@
         <f>SUM(B73:V73)</f>
         <v/>
       </c>
-      <c r="X73" t="n">
-        <v>0</v>
+      <c r="X73">
+        <f>VLOOKUP(A73,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y73">
         <f>X73-W73</f>
@@ -3589,8 +3654,9 @@
         <f>SUM(B74:V74)</f>
         <v/>
       </c>
-      <c r="X74" t="n">
-        <v>0</v>
+      <c r="X74">
+        <f>VLOOKUP(A74,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y74">
         <f>X74-W74</f>
@@ -3632,8 +3698,9 @@
         <f>SUM(B75:V75)</f>
         <v/>
       </c>
-      <c r="X75" t="n">
-        <v>0</v>
+      <c r="X75">
+        <f>VLOOKUP(A75,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y75">
         <f>X75-W75</f>
@@ -3678,8 +3745,9 @@
         <f>SUM(B76:V76)</f>
         <v/>
       </c>
-      <c r="X76" t="n">
-        <v>0</v>
+      <c r="X76">
+        <f>VLOOKUP(A76,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y76">
         <f>X76-W76</f>
@@ -3736,8 +3804,9 @@
         <f>SUM(B77:V77)</f>
         <v/>
       </c>
-      <c r="X77" t="n">
-        <v>0</v>
+      <c r="X77">
+        <f>VLOOKUP(A77,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y77">
         <f>X77-W77</f>
@@ -3785,8 +3854,9 @@
         <f>SUM(B78:V78)</f>
         <v/>
       </c>
-      <c r="X78" t="n">
-        <v>0</v>
+      <c r="X78">
+        <f>VLOOKUP(A78,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y78">
         <f>X78-W78</f>
@@ -3813,8 +3883,9 @@
         <f>SUM(B79:V79)</f>
         <v/>
       </c>
-      <c r="X79" t="n">
-        <v>0</v>
+      <c r="X79">
+        <f>VLOOKUP(A79,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y79">
         <f>X79-W79</f>
@@ -3838,8 +3909,9 @@
         <f>SUM(B80:V80)</f>
         <v/>
       </c>
-      <c r="X80" t="n">
-        <v>0</v>
+      <c r="X80">
+        <f>VLOOKUP(A80,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y80">
         <f>X80-W80</f>
@@ -3860,8 +3932,9 @@
         <f>SUM(B81:V81)</f>
         <v/>
       </c>
-      <c r="X81" t="n">
-        <v>0</v>
+      <c r="X81">
+        <f>VLOOKUP(A81,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y81">
         <f>X81-W81</f>
@@ -3891,8 +3964,9 @@
         <f>SUM(B82:V82)</f>
         <v/>
       </c>
-      <c r="X82" t="n">
-        <v>0</v>
+      <c r="X82">
+        <f>VLOOKUP(A82,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y82">
         <f>X82-W82</f>
@@ -3919,8 +3993,9 @@
         <f>SUM(B83:V83)</f>
         <v/>
       </c>
-      <c r="X83" t="n">
-        <v>0</v>
+      <c r="X83">
+        <f>VLOOKUP(A83,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y83">
         <f>X83-W83</f>
@@ -3956,8 +4031,9 @@
         <f>SUM(B84:V84)</f>
         <v/>
       </c>
-      <c r="X84" t="n">
-        <v>0</v>
+      <c r="X84">
+        <f>VLOOKUP(A84,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y84">
         <f>X84-W84</f>
@@ -3981,8 +4057,9 @@
         <f>SUM(B85:V85)</f>
         <v/>
       </c>
-      <c r="X85" t="n">
-        <v>0</v>
+      <c r="X85">
+        <f>VLOOKUP(A85,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y85">
         <f>X85-W85</f>
@@ -4027,8 +4104,9 @@
         <f>SUM(B86:V86)</f>
         <v/>
       </c>
-      <c r="X86" t="n">
-        <v>0</v>
+      <c r="X86">
+        <f>VLOOKUP(A86,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y86">
         <f>X86-W86</f>
@@ -4061,8 +4139,9 @@
         <f>SUM(B87:V87)</f>
         <v/>
       </c>
-      <c r="X87" t="n">
-        <v>0</v>
+      <c r="X87">
+        <f>VLOOKUP(A87,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y87">
         <f>X87-W87</f>
@@ -4110,8 +4189,9 @@
         <f>SUM(B88:V88)</f>
         <v/>
       </c>
-      <c r="X88" t="n">
-        <v>0</v>
+      <c r="X88">
+        <f>VLOOKUP(A88,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y88">
         <f>X88-W88</f>
@@ -4150,8 +4230,9 @@
         <f>SUM(B89:V89)</f>
         <v/>
       </c>
-      <c r="X89" t="n">
-        <v>0</v>
+      <c r="X89">
+        <f>VLOOKUP(A89,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y89">
         <f>X89-W89</f>
@@ -4175,8 +4256,9 @@
         <f>SUM(B90:V90)</f>
         <v/>
       </c>
-      <c r="X90" t="n">
-        <v>0</v>
+      <c r="X90">
+        <f>VLOOKUP(A90,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y90">
         <f>X90-W90</f>
@@ -4206,8 +4288,9 @@
         <f>SUM(B91:V91)</f>
         <v/>
       </c>
-      <c r="X91" t="n">
-        <v>0</v>
+      <c r="X91">
+        <f>VLOOKUP(A91,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y91">
         <f>X91-W91</f>
@@ -4249,8 +4332,9 @@
         <f>SUM(B92:V92)</f>
         <v/>
       </c>
-      <c r="X92" t="n">
-        <v>0</v>
+      <c r="X92">
+        <f>VLOOKUP(A92,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y92">
         <f>X92-W92</f>
@@ -4283,8 +4367,9 @@
         <f>SUM(B93:V93)</f>
         <v/>
       </c>
-      <c r="X93" t="n">
-        <v>0</v>
+      <c r="X93">
+        <f>VLOOKUP(A93,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y93">
         <f>X93-W93</f>
@@ -4335,8 +4420,9 @@
         <f>SUM(B94:V94)</f>
         <v/>
       </c>
-      <c r="X94" t="n">
-        <v>0</v>
+      <c r="X94">
+        <f>VLOOKUP(A94,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y94">
         <f>X94-W94</f>
@@ -4396,8 +4482,9 @@
         <f>SUM(B95:V95)</f>
         <v/>
       </c>
-      <c r="X95" t="n">
-        <v>0</v>
+      <c r="X95">
+        <f>VLOOKUP(A95,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y95">
         <f>X95-W95</f>
@@ -4445,8 +4532,9 @@
         <f>SUM(B96:V96)</f>
         <v/>
       </c>
-      <c r="X96" t="n">
-        <v>0</v>
+      <c r="X96">
+        <f>VLOOKUP(A96,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y96">
         <f>X96-W96</f>
@@ -4488,8 +4576,9 @@
         <f>SUM(B97:V97)</f>
         <v/>
       </c>
-      <c r="X97" t="n">
-        <v>0</v>
+      <c r="X97">
+        <f>VLOOKUP(A97,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y97">
         <f>X97-W97</f>
@@ -4543,8 +4632,9 @@
         <f>SUM(B98:V98)</f>
         <v/>
       </c>
-      <c r="X98" t="n">
-        <v>0</v>
+      <c r="X98">
+        <f>VLOOKUP(A98,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y98">
         <f>X98-W98</f>
@@ -4607,8 +4697,9 @@
         <f>SUM(B99:V99)</f>
         <v/>
       </c>
-      <c r="X99" t="n">
-        <v>0</v>
+      <c r="X99">
+        <f>VLOOKUP(A99,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y99">
         <f>X99-W99</f>
@@ -4659,8 +4750,9 @@
         <f>SUM(B100:V100)</f>
         <v/>
       </c>
-      <c r="X100" t="n">
-        <v>0</v>
+      <c r="X100">
+        <f>VLOOKUP(A100,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y100">
         <f>X100-W100</f>
@@ -4705,8 +4797,9 @@
         <f>SUM(B101:V101)</f>
         <v/>
       </c>
-      <c r="X101" t="n">
-        <v>0</v>
+      <c r="X101">
+        <f>VLOOKUP(A101,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y101">
         <f>X101-W101</f>
@@ -4763,8 +4856,9 @@
         <f>SUM(B102:V102)</f>
         <v/>
       </c>
-      <c r="X102" t="n">
-        <v>0</v>
+      <c r="X102">
+        <f>VLOOKUP(A102,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y102">
         <f>X102-W102</f>
@@ -4803,8 +4897,9 @@
         <f>SUM(B103:V103)</f>
         <v/>
       </c>
-      <c r="X103" t="n">
-        <v>0</v>
+      <c r="X103">
+        <f>VLOOKUP(A103,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y103">
         <f>X103-W103</f>
@@ -4831,8 +4926,9 @@
         <f>SUM(B104:V104)</f>
         <v/>
       </c>
-      <c r="X104" t="n">
-        <v>0</v>
+      <c r="X104">
+        <f>VLOOKUP(A104,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y104">
         <f>X104-W104</f>
@@ -4871,8 +4967,9 @@
         <f>SUM(B105:V105)</f>
         <v/>
       </c>
-      <c r="X105" t="n">
-        <v>0</v>
+      <c r="X105">
+        <f>VLOOKUP(A105,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y105">
         <f>X105-W105</f>
@@ -4914,8 +5011,9 @@
         <f>SUM(B106:V106)</f>
         <v/>
       </c>
-      <c r="X106" t="n">
-        <v>0</v>
+      <c r="X106">
+        <f>VLOOKUP(A106,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y106">
         <f>X106-W106</f>
@@ -4951,8 +5049,9 @@
         <f>SUM(B107:V107)</f>
         <v/>
       </c>
-      <c r="X107" t="n">
-        <v>0</v>
+      <c r="X107">
+        <f>VLOOKUP(A107,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y107">
         <f>X107-W107</f>
@@ -5000,8 +5099,9 @@
         <f>SUM(B108:V108)</f>
         <v/>
       </c>
-      <c r="X108" t="n">
-        <v>0</v>
+      <c r="X108">
+        <f>VLOOKUP(A108,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y108">
         <f>X108-W108</f>
@@ -5058,8 +5158,9 @@
         <f>SUM(B109:V109)</f>
         <v/>
       </c>
-      <c r="X109" t="n">
-        <v>0</v>
+      <c r="X109">
+        <f>VLOOKUP(A109,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y109">
         <f>X109-W109</f>
@@ -5104,8 +5205,9 @@
         <f>SUM(B110:V110)</f>
         <v/>
       </c>
-      <c r="X110" t="n">
-        <v>0</v>
+      <c r="X110">
+        <f>VLOOKUP(A110,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y110">
         <f>X110-W110</f>
@@ -5162,8 +5264,9 @@
         <f>SUM(B111:V111)</f>
         <v/>
       </c>
-      <c r="X111" t="n">
-        <v>0</v>
+      <c r="X111">
+        <f>VLOOKUP(A111,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y111">
         <f>X111-W111</f>
@@ -5208,8 +5311,9 @@
         <f>SUM(B112:V112)</f>
         <v/>
       </c>
-      <c r="X112" t="n">
-        <v>0</v>
+      <c r="X112">
+        <f>VLOOKUP(A112,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y112">
         <f>X112-W112</f>
@@ -5266,8 +5370,9 @@
         <f>SUM(B113:V113)</f>
         <v/>
       </c>
-      <c r="X113" t="n">
-        <v>0</v>
+      <c r="X113">
+        <f>VLOOKUP(A113,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y113">
         <f>X113-W113</f>
@@ -5303,8 +5408,9 @@
         <f>SUM(B114:V114)</f>
         <v/>
       </c>
-      <c r="X114" t="n">
-        <v>0</v>
+      <c r="X114">
+        <f>VLOOKUP(A114,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y114">
         <f>X114-W114</f>
@@ -5343,8 +5449,9 @@
         <f>SUM(B115:V115)</f>
         <v/>
       </c>
-      <c r="X115" t="n">
-        <v>0</v>
+      <c r="X115">
+        <f>VLOOKUP(A115,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y115">
         <f>X115-W115</f>
@@ -5368,8 +5475,9 @@
         <f>SUM(B116:V116)</f>
         <v/>
       </c>
-      <c r="X116" t="n">
-        <v>0</v>
+      <c r="X116">
+        <f>VLOOKUP(A116,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y116">
         <f>X116-W116</f>
@@ -5405,8 +5513,9 @@
         <f>SUM(B117:V117)</f>
         <v/>
       </c>
-      <c r="X117" t="n">
-        <v>0</v>
+      <c r="X117">
+        <f>VLOOKUP(A117,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y117">
         <f>X117-W117</f>
@@ -5448,8 +5557,9 @@
         <f>SUM(B118:V118)</f>
         <v/>
       </c>
-      <c r="X118" t="n">
-        <v>0</v>
+      <c r="X118">
+        <f>VLOOKUP(A118,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y118">
         <f>X118-W118</f>
@@ -5497,8 +5607,9 @@
         <f>SUM(B119:V119)</f>
         <v/>
       </c>
-      <c r="X119" t="n">
-        <v>0</v>
+      <c r="X119">
+        <f>VLOOKUP(A119,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y119">
         <f>X119-W119</f>
@@ -5543,8 +5654,9 @@
         <f>SUM(B120:V120)</f>
         <v/>
       </c>
-      <c r="X120" t="n">
-        <v>0</v>
+      <c r="X120">
+        <f>VLOOKUP(A120,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y120">
         <f>X120-W120</f>
@@ -5592,8 +5704,9 @@
         <f>SUM(B121:V121)</f>
         <v/>
       </c>
-      <c r="X121" t="n">
-        <v>0</v>
+      <c r="X121">
+        <f>VLOOKUP(A121,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y121">
         <f>X121-W121</f>
@@ -5635,8 +5748,9 @@
         <f>SUM(B122:V122)</f>
         <v/>
       </c>
-      <c r="X122" t="n">
-        <v>0</v>
+      <c r="X122">
+        <f>VLOOKUP(A122,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y122">
         <f>X122-W122</f>
@@ -5684,8 +5798,9 @@
         <f>SUM(B123:V123)</f>
         <v/>
       </c>
-      <c r="X123" t="n">
-        <v>0</v>
+      <c r="X123">
+        <f>VLOOKUP(A123,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y123">
         <f>X123-W123</f>
@@ -5721,8 +5836,9 @@
         <f>SUM(B124:V124)</f>
         <v/>
       </c>
-      <c r="X124" t="n">
-        <v>0</v>
+      <c r="X124">
+        <f>VLOOKUP(A124,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y124">
         <f>X124-W124</f>
@@ -5773,8 +5889,9 @@
         <f>SUM(B125:V125)</f>
         <v/>
       </c>
-      <c r="X125" t="n">
-        <v>0</v>
+      <c r="X125">
+        <f>VLOOKUP(A125,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y125">
         <f>X125-W125</f>
@@ -5828,8 +5945,9 @@
         <f>SUM(B126:V126)</f>
         <v/>
       </c>
-      <c r="X126" t="n">
-        <v>0</v>
+      <c r="X126">
+        <f>VLOOKUP(A126,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y126">
         <f>X126-W126</f>
@@ -5892,8 +6010,9 @@
         <f>SUM(B127:V127)</f>
         <v/>
       </c>
-      <c r="X127" t="n">
-        <v>0</v>
+      <c r="X127">
+        <f>VLOOKUP(A127,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y127">
         <f>X127-W127</f>
@@ -5944,8 +6063,9 @@
         <f>SUM(B128:V128)</f>
         <v/>
       </c>
-      <c r="X128" t="n">
-        <v>0</v>
+      <c r="X128">
+        <f>VLOOKUP(A128,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y128">
         <f>X128-W128</f>
@@ -6002,8 +6122,9 @@
         <f>SUM(B129:V129)</f>
         <v/>
       </c>
-      <c r="X129" t="n">
-        <v>0</v>
+      <c r="X129">
+        <f>VLOOKUP(A129,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y129">
         <f>X129-W129</f>
@@ -6051,8 +6172,9 @@
         <f>SUM(B130:V130)</f>
         <v/>
       </c>
-      <c r="X130" t="n">
-        <v>0</v>
+      <c r="X130">
+        <f>VLOOKUP(A130,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y130">
         <f>X130-W130</f>
@@ -6091,8 +6213,9 @@
         <f>SUM(B131:V131)</f>
         <v/>
       </c>
-      <c r="X131" t="n">
-        <v>0</v>
+      <c r="X131">
+        <f>VLOOKUP(A131,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y131">
         <f>X131-W131</f>
@@ -6146,8 +6269,9 @@
         <f>SUM(B132:V132)</f>
         <v/>
       </c>
-      <c r="X132" t="n">
-        <v>0</v>
+      <c r="X132">
+        <f>VLOOKUP(A132,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y132">
         <f>X132-W132</f>
@@ -6201,8 +6325,9 @@
         <f>SUM(B133:V133)</f>
         <v/>
       </c>
-      <c r="X133" t="n">
-        <v>0</v>
+      <c r="X133">
+        <f>VLOOKUP(A133,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y133">
         <f>X133-W133</f>
@@ -6259,8 +6384,9 @@
         <f>SUM(B134:V134)</f>
         <v/>
       </c>
-      <c r="X134" t="n">
-        <v>0</v>
+      <c r="X134">
+        <f>VLOOKUP(A134,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y134">
         <f>X134-W134</f>
@@ -6287,8 +6413,9 @@
         <f>SUM(B135:V135)</f>
         <v/>
       </c>
-      <c r="X135" t="n">
-        <v>0</v>
+      <c r="X135">
+        <f>VLOOKUP(A135,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y135">
         <f>X135-W135</f>
@@ -6312,8 +6439,9 @@
         <f>SUM(B136:V136)</f>
         <v/>
       </c>
-      <c r="X136" t="n">
-        <v>0</v>
+      <c r="X136">
+        <f>VLOOKUP(A136,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y136">
         <f>X136-W136</f>
@@ -6337,8 +6465,9 @@
         <f>SUM(B137:V137)</f>
         <v/>
       </c>
-      <c r="X137" t="n">
-        <v>0</v>
+      <c r="X137">
+        <f>VLOOKUP(A137,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y137">
         <f>X137-W137</f>
@@ -6368,8 +6497,9 @@
         <f>SUM(B138:V138)</f>
         <v/>
       </c>
-      <c r="X138" t="n">
-        <v>0</v>
+      <c r="X138">
+        <f>VLOOKUP(A138,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y138">
         <f>X138-W138</f>
@@ -6417,8 +6547,9 @@
         <f>SUM(B139:V139)</f>
         <v/>
       </c>
-      <c r="X139" t="n">
-        <v>0</v>
+      <c r="X139">
+        <f>VLOOKUP(A139,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y139">
         <f>X139-W139</f>
@@ -6451,8 +6582,9 @@
         <f>SUM(B140:V140)</f>
         <v/>
       </c>
-      <c r="X140" t="n">
-        <v>0</v>
+      <c r="X140">
+        <f>VLOOKUP(A140,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y140">
         <f>X140-W140</f>
@@ -6494,8 +6626,9 @@
         <f>SUM(B141:V141)</f>
         <v/>
       </c>
-      <c r="X141" t="n">
-        <v>0</v>
+      <c r="X141">
+        <f>VLOOKUP(A141,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y141">
         <f>X141-W141</f>
@@ -6531,8 +6664,9 @@
         <f>SUM(B142:V142)</f>
         <v/>
       </c>
-      <c r="X142" t="n">
-        <v>0</v>
+      <c r="X142">
+        <f>VLOOKUP(A142,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y142">
         <f>X142-W142</f>
@@ -6559,8 +6693,9 @@
         <f>SUM(B143:V143)</f>
         <v/>
       </c>
-      <c r="X143" t="n">
-        <v>0</v>
+      <c r="X143">
+        <f>VLOOKUP(A143,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y143">
         <f>X143-W143</f>
@@ -6590,8 +6725,9 @@
         <f>SUM(B144:V144)</f>
         <v/>
       </c>
-      <c r="X144" t="n">
-        <v>0</v>
+      <c r="X144">
+        <f>VLOOKUP(A144,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y144">
         <f>X144-W144</f>
@@ -6621,8 +6757,9 @@
         <f>SUM(B145:V145)</f>
         <v/>
       </c>
-      <c r="X145" t="n">
-        <v>0</v>
+      <c r="X145">
+        <f>VLOOKUP(A145,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y145">
         <f>X145-W145</f>
@@ -6652,8 +6789,9 @@
         <f>SUM(B146:V146)</f>
         <v/>
       </c>
-      <c r="X146" t="n">
-        <v>0</v>
+      <c r="X146">
+        <f>VLOOKUP(A146,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y146">
         <f>X146-W146</f>
@@ -6686,8 +6824,9 @@
         <f>SUM(B147:V147)</f>
         <v/>
       </c>
-      <c r="X147" t="n">
-        <v>0</v>
+      <c r="X147">
+        <f>VLOOKUP(A147,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y147">
         <f>X147-W147</f>
@@ -6717,8 +6856,9 @@
         <f>SUM(B148:V148)</f>
         <v/>
       </c>
-      <c r="X148" t="n">
-        <v>0</v>
+      <c r="X148">
+        <f>VLOOKUP(A148,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y148">
         <f>X148-W148</f>
@@ -6748,8 +6888,9 @@
         <f>SUM(B149:V149)</f>
         <v/>
       </c>
-      <c r="X149" t="n">
-        <v>0</v>
+      <c r="X149">
+        <f>VLOOKUP(A149,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y149">
         <f>X149-W149</f>
@@ -6782,8 +6923,9 @@
         <f>SUM(B150:V150)</f>
         <v/>
       </c>
-      <c r="X150" t="n">
-        <v>0</v>
+      <c r="X150">
+        <f>VLOOKUP(A150,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y150">
         <f>X150-W150</f>
@@ -6813,8 +6955,9 @@
         <f>SUM(B151:V151)</f>
         <v/>
       </c>
-      <c r="X151" t="n">
-        <v>0</v>
+      <c r="X151">
+        <f>VLOOKUP(A151,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y151">
         <f>X151-W151</f>
@@ -6859,8 +7002,9 @@
         <f>SUM(B152:V152)</f>
         <v/>
       </c>
-      <c r="X152" t="n">
-        <v>0</v>
+      <c r="X152">
+        <f>VLOOKUP(A152,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y152">
         <f>X152-W152</f>
@@ -6908,8 +7052,9 @@
         <f>SUM(B153:V153)</f>
         <v/>
       </c>
-      <c r="X153" t="n">
-        <v>0</v>
+      <c r="X153">
+        <f>VLOOKUP(A153,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y153">
         <f>X153-W153</f>
@@ -6957,8 +7102,9 @@
         <f>SUM(B154:V154)</f>
         <v/>
       </c>
-      <c r="X154" t="n">
-        <v>0</v>
+      <c r="X154">
+        <f>VLOOKUP(A154,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y154">
         <f>X154-W154</f>
@@ -7021,8 +7167,9 @@
         <f>SUM(B155:V155)</f>
         <v/>
       </c>
-      <c r="X155" t="n">
-        <v>0</v>
+      <c r="X155">
+        <f>VLOOKUP(A155,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y155">
         <f>X155-W155</f>
@@ -7073,8 +7220,9 @@
         <f>SUM(B156:V156)</f>
         <v/>
       </c>
-      <c r="X156" t="n">
-        <v>0</v>
+      <c r="X156">
+        <f>VLOOKUP(A156,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y156">
         <f>X156-W156</f>
@@ -7125,8 +7273,9 @@
         <f>SUM(B157:V157)</f>
         <v/>
       </c>
-      <c r="X157" t="n">
-        <v>0</v>
+      <c r="X157">
+        <f>VLOOKUP(A157,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y157">
         <f>X157-W157</f>
@@ -7171,8 +7320,9 @@
         <f>SUM(B158:V158)</f>
         <v/>
       </c>
-      <c r="X158" t="n">
-        <v>0</v>
+      <c r="X158">
+        <f>VLOOKUP(A158,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y158">
         <f>X158-W158</f>
@@ -7232,8 +7382,9 @@
         <f>SUM(B159:V159)</f>
         <v/>
       </c>
-      <c r="X159" t="n">
-        <v>0</v>
+      <c r="X159">
+        <f>VLOOKUP(A159,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y159">
         <f>X159-W159</f>
@@ -7284,8 +7435,9 @@
         <f>SUM(B160:V160)</f>
         <v/>
       </c>
-      <c r="X160" t="n">
-        <v>0</v>
+      <c r="X160">
+        <f>VLOOKUP(A160,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y160">
         <f>X160-W160</f>
@@ -7336,8 +7488,9 @@
         <f>SUM(B161:V161)</f>
         <v/>
       </c>
-      <c r="X161" t="n">
-        <v>0</v>
+      <c r="X161">
+        <f>VLOOKUP(A161,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y161">
         <f>X161-W161</f>
@@ -7391,8 +7544,9 @@
         <f>SUM(B162:V162)</f>
         <v/>
       </c>
-      <c r="X162" t="n">
-        <v>0</v>
+      <c r="X162">
+        <f>VLOOKUP(A162,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y162">
         <f>X162-W162</f>
@@ -7458,8 +7612,9 @@
         <f>SUM(B163:V163)</f>
         <v/>
       </c>
-      <c r="X163" t="n">
-        <v>0</v>
+      <c r="X163">
+        <f>VLOOKUP(A163,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y163">
         <f>X163-W163</f>
@@ -7519,8 +7674,9 @@
         <f>SUM(B164:V164)</f>
         <v/>
       </c>
-      <c r="X164" t="n">
-        <v>0</v>
+      <c r="X164">
+        <f>VLOOKUP(A164,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y164">
         <f>X164-W164</f>
@@ -7568,8 +7724,9 @@
         <f>SUM(B165:V165)</f>
         <v/>
       </c>
-      <c r="X165" t="n">
-        <v>0</v>
+      <c r="X165">
+        <f>VLOOKUP(A165,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y165">
         <f>X165-W165</f>
@@ -7635,8 +7792,9 @@
         <f>SUM(B166:V166)</f>
         <v/>
       </c>
-      <c r="X166" t="n">
-        <v>0</v>
+      <c r="X166">
+        <f>VLOOKUP(A166,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y166">
         <f>X166-W166</f>
@@ -7702,8 +7860,9 @@
         <f>SUM(B167:V167)</f>
         <v/>
       </c>
-      <c r="X167" t="n">
-        <v>0</v>
+      <c r="X167">
+        <f>VLOOKUP(A167,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y167">
         <f>X167-W167</f>
@@ -7763,8 +7922,9 @@
         <f>SUM(B168:V168)</f>
         <v/>
       </c>
-      <c r="X168" t="n">
-        <v>0</v>
+      <c r="X168">
+        <f>VLOOKUP(A168,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y168">
         <f>X168-W168</f>
@@ -7821,8 +7981,9 @@
         <f>SUM(B169:V169)</f>
         <v/>
       </c>
-      <c r="X169" t="n">
-        <v>0</v>
+      <c r="X169">
+        <f>VLOOKUP(A169,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y169">
         <f>X169-W169</f>
@@ -7885,8 +8046,9 @@
         <f>SUM(B170:V170)</f>
         <v/>
       </c>
-      <c r="X170" t="n">
-        <v>0</v>
+      <c r="X170">
+        <f>VLOOKUP(A170,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y170">
         <f>X170-W170</f>
@@ -7940,8 +8102,9 @@
         <f>SUM(B171:V171)</f>
         <v/>
       </c>
-      <c r="X171" t="n">
-        <v>0</v>
+      <c r="X171">
+        <f>VLOOKUP(A171,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y171">
         <f>X171-W171</f>
@@ -7977,8 +8140,9 @@
         <f>SUM(B172:V172)</f>
         <v/>
       </c>
-      <c r="X172" t="n">
-        <v>0</v>
+      <c r="X172">
+        <f>VLOOKUP(A172,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y172">
         <f>X172-W172</f>
@@ -8032,8 +8196,9 @@
         <f>SUM(B173:V173)</f>
         <v/>
       </c>
-      <c r="X173" t="n">
-        <v>0</v>
+      <c r="X173">
+        <f>VLOOKUP(A173,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y173">
         <f>X173-W173</f>
@@ -8093,8 +8258,9 @@
         <f>SUM(B174:V174)</f>
         <v/>
       </c>
-      <c r="X174" t="n">
-        <v>0</v>
+      <c r="X174">
+        <f>VLOOKUP(A174,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y174">
         <f>X174-W174</f>
@@ -8130,8 +8296,9 @@
         <f>SUM(B175:V175)</f>
         <v/>
       </c>
-      <c r="X175" t="n">
-        <v>0</v>
+      <c r="X175">
+        <f>VLOOKUP(A175,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y175">
         <f>X175-W175</f>
@@ -8179,8 +8346,9 @@
         <f>SUM(B176:V176)</f>
         <v/>
       </c>
-      <c r="X176" t="n">
-        <v>0</v>
+      <c r="X176">
+        <f>VLOOKUP(A176,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y176">
         <f>X176-W176</f>
@@ -8228,8 +8396,9 @@
         <f>SUM(B177:V177)</f>
         <v/>
       </c>
-      <c r="X177" t="n">
-        <v>0</v>
+      <c r="X177">
+        <f>VLOOKUP(A177,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y177">
         <f>X177-W177</f>
@@ -8295,8 +8464,9 @@
         <f>SUM(B178:V178)</f>
         <v/>
       </c>
-      <c r="X178" t="n">
-        <v>0</v>
+      <c r="X178">
+        <f>VLOOKUP(A178,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y178">
         <f>X178-W178</f>
@@ -8329,8 +8499,9 @@
         <f>SUM(B179:V179)</f>
         <v/>
       </c>
-      <c r="X179" t="n">
-        <v>0</v>
+      <c r="X179">
+        <f>VLOOKUP(A179,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y179">
         <f>X179-W179</f>
@@ -8378,8 +8549,9 @@
         <f>SUM(B180:V180)</f>
         <v/>
       </c>
-      <c r="X180" t="n">
-        <v>0</v>
+      <c r="X180">
+        <f>VLOOKUP(A180,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y180">
         <f>X180-W180</f>
@@ -8430,8 +8602,9 @@
         <f>SUM(B181:V181)</f>
         <v/>
       </c>
-      <c r="X181" t="n">
-        <v>0</v>
+      <c r="X181">
+        <f>VLOOKUP(A181,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y181">
         <f>X181-W181</f>
@@ -8497,8 +8670,9 @@
         <f>SUM(B182:V182)</f>
         <v/>
       </c>
-      <c r="X182" t="n">
-        <v>0</v>
+      <c r="X182">
+        <f>VLOOKUP(A182,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y182">
         <f>X182-W182</f>
@@ -8540,8 +8714,9 @@
         <f>SUM(B183:V183)</f>
         <v/>
       </c>
-      <c r="X183" t="n">
-        <v>0</v>
+      <c r="X183">
+        <f>VLOOKUP(A183,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y183">
         <f>X183-W183</f>
@@ -8580,8 +8755,9 @@
         <f>SUM(B184:V184)</f>
         <v/>
       </c>
-      <c r="X184" t="n">
-        <v>0</v>
+      <c r="X184">
+        <f>VLOOKUP(A184,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y184">
         <f>X184-W184</f>
@@ -8644,8 +8820,9 @@
         <f>SUM(B185:V185)</f>
         <v/>
       </c>
-      <c r="X185" t="n">
-        <v>0</v>
+      <c r="X185">
+        <f>VLOOKUP(A185,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y185">
         <f>X185-W185</f>
@@ -8711,8 +8888,9 @@
         <f>SUM(B186:V186)</f>
         <v/>
       </c>
-      <c r="X186" t="n">
-        <v>0</v>
+      <c r="X186">
+        <f>VLOOKUP(A186,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y186">
         <f>X186-W186</f>
@@ -8778,8 +8956,9 @@
         <f>SUM(B187:V187)</f>
         <v/>
       </c>
-      <c r="X187" t="n">
-        <v>0</v>
+      <c r="X187">
+        <f>VLOOKUP(A187,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y187">
         <f>X187-W187</f>
@@ -8845,8 +9024,9 @@
         <f>SUM(B188:V188)</f>
         <v/>
       </c>
-      <c r="X188" t="n">
-        <v>0</v>
+      <c r="X188">
+        <f>VLOOKUP(A188,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y188">
         <f>X188-W188</f>
@@ -8873,8 +9053,9 @@
         <f>SUM(B189:V189)</f>
         <v/>
       </c>
-      <c r="X189" t="n">
-        <v>0</v>
+      <c r="X189">
+        <f>VLOOKUP(A189,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y189">
         <f>X189-W189</f>
@@ -8904,8 +9085,9 @@
         <f>SUM(B190:V190)</f>
         <v/>
       </c>
-      <c r="X190" t="n">
-        <v>0</v>
+      <c r="X190">
+        <f>VLOOKUP(A190,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y190">
         <f>X190-W190</f>
@@ -8935,8 +9117,9 @@
         <f>SUM(B191:V191)</f>
         <v/>
       </c>
-      <c r="X191" t="n">
-        <v>0</v>
+      <c r="X191">
+        <f>VLOOKUP(A191,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y191">
         <f>X191-W191</f>
@@ -8957,8 +9140,9 @@
         <f>SUM(B192:V192)</f>
         <v/>
       </c>
-      <c r="X192" t="n">
-        <v>0</v>
+      <c r="X192">
+        <f>VLOOKUP(A192,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y192">
         <f>X192-W192</f>
@@ -8988,8 +9172,9 @@
         <f>SUM(B193:V193)</f>
         <v/>
       </c>
-      <c r="X193" t="n">
-        <v>0</v>
+      <c r="X193">
+        <f>VLOOKUP(A193,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y193">
         <f>X193-W193</f>
@@ -9016,8 +9201,9 @@
         <f>SUM(B194:V194)</f>
         <v/>
       </c>
-      <c r="X194" t="n">
-        <v>0</v>
+      <c r="X194">
+        <f>VLOOKUP(A194,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y194">
         <f>X194-W194</f>
@@ -9050,8 +9236,9 @@
         <f>SUM(B195:V195)</f>
         <v/>
       </c>
-      <c r="X195" t="n">
-        <v>0</v>
+      <c r="X195">
+        <f>VLOOKUP(A195,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y195">
         <f>X195-W195</f>
@@ -9075,8 +9262,9 @@
         <f>SUM(B196:V196)</f>
         <v/>
       </c>
-      <c r="X196" t="n">
-        <v>0</v>
+      <c r="X196">
+        <f>VLOOKUP(A196,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y196">
         <f>X196-W196</f>
@@ -9109,8 +9297,9 @@
         <f>SUM(B197:V197)</f>
         <v/>
       </c>
-      <c r="X197" t="n">
-        <v>0</v>
+      <c r="X197">
+        <f>VLOOKUP(A197,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y197">
         <f>X197-W197</f>
@@ -9143,8 +9332,9 @@
         <f>SUM(B198:V198)</f>
         <v/>
       </c>
-      <c r="X198" t="n">
-        <v>0</v>
+      <c r="X198">
+        <f>VLOOKUP(A198,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y198">
         <f>X198-W198</f>
@@ -9171,8 +9361,9 @@
         <f>SUM(B199:V199)</f>
         <v/>
       </c>
-      <c r="X199" t="n">
-        <v>0</v>
+      <c r="X199">
+        <f>VLOOKUP(A199,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y199">
         <f>X199-W199</f>
@@ -9220,8 +9411,9 @@
         <f>SUM(B200:V200)</f>
         <v/>
       </c>
-      <c r="X200" t="n">
-        <v>0</v>
+      <c r="X200">
+        <f>VLOOKUP(A200,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y200">
         <f>X200-W200</f>
@@ -9251,8 +9443,9 @@
         <f>SUM(B201:V201)</f>
         <v/>
       </c>
-      <c r="X201" t="n">
-        <v>0</v>
+      <c r="X201">
+        <f>VLOOKUP(A201,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y201">
         <f>X201-W201</f>
@@ -9279,8 +9472,9 @@
         <f>SUM(B202:V202)</f>
         <v/>
       </c>
-      <c r="X202" t="n">
-        <v>0</v>
+      <c r="X202">
+        <f>VLOOKUP(A202,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y202">
         <f>X202-W202</f>
@@ -9310,8 +9504,9 @@
         <f>SUM(B203:V203)</f>
         <v/>
       </c>
-      <c r="X203" t="n">
-        <v>0</v>
+      <c r="X203">
+        <f>VLOOKUP(A203,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y203">
         <f>X203-W203</f>
@@ -9341,8 +9536,9 @@
         <f>SUM(B204:V204)</f>
         <v/>
       </c>
-      <c r="X204" t="n">
-        <v>0</v>
+      <c r="X204">
+        <f>VLOOKUP(A204,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y204">
         <f>X204-W204</f>
@@ -9363,8 +9559,9 @@
         <f>SUM(B205:V205)</f>
         <v/>
       </c>
-      <c r="X205" t="n">
-        <v>0</v>
+      <c r="X205">
+        <f>VLOOKUP(A205,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y205">
         <f>X205-W205</f>
@@ -9394,8 +9591,9 @@
         <f>SUM(B206:V206)</f>
         <v/>
       </c>
-      <c r="X206" t="n">
-        <v>0</v>
+      <c r="X206">
+        <f>VLOOKUP(A206,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y206">
         <f>X206-W206</f>
@@ -9428,8 +9626,9 @@
         <f>SUM(B207:V207)</f>
         <v/>
       </c>
-      <c r="X207" t="n">
-        <v>0</v>
+      <c r="X207">
+        <f>VLOOKUP(A207,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y207">
         <f>X207-W207</f>
@@ -9459,8 +9658,9 @@
         <f>SUM(B208:V208)</f>
         <v/>
       </c>
-      <c r="X208" t="n">
-        <v>0</v>
+      <c r="X208">
+        <f>VLOOKUP(A208,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y208">
         <f>X208-W208</f>
@@ -9487,8 +9687,9 @@
         <f>SUM(B209:V209)</f>
         <v/>
       </c>
-      <c r="X209" t="n">
-        <v>0</v>
+      <c r="X209">
+        <f>VLOOKUP(A209,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y209">
         <f>X209-W209</f>
@@ -9542,8 +9743,9 @@
         <f>SUM(B210:V210)</f>
         <v/>
       </c>
-      <c r="X210" t="n">
-        <v>0</v>
+      <c r="X210">
+        <f>VLOOKUP(A210,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y210">
         <f>X210-W210</f>
@@ -9591,8 +9793,9 @@
         <f>SUM(B211:V211)</f>
         <v/>
       </c>
-      <c r="X211" t="n">
-        <v>0</v>
+      <c r="X211">
+        <f>VLOOKUP(A211,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y211">
         <f>X211-W211</f>
@@ -9649,8 +9852,9 @@
         <f>SUM(B212:V212)</f>
         <v/>
       </c>
-      <c r="X212" t="n">
-        <v>0</v>
+      <c r="X212">
+        <f>VLOOKUP(A212,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y212">
         <f>X212-W212</f>
@@ -9704,8 +9908,9 @@
         <f>SUM(B213:V213)</f>
         <v/>
       </c>
-      <c r="X213" t="n">
-        <v>0</v>
+      <c r="X213">
+        <f>VLOOKUP(A213,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y213">
         <f>X213-W213</f>
@@ -9756,8 +9961,9 @@
         <f>SUM(B214:V214)</f>
         <v/>
       </c>
-      <c r="X214" t="n">
-        <v>0</v>
+      <c r="X214">
+        <f>VLOOKUP(A214,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y214">
         <f>X214-W214</f>
@@ -9808,8 +10014,9 @@
         <f>SUM(B215:V215)</f>
         <v/>
       </c>
-      <c r="X215" t="n">
-        <v>0</v>
+      <c r="X215">
+        <f>VLOOKUP(A215,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y215">
         <f>X215-W215</f>
@@ -9875,8 +10082,9 @@
         <f>SUM(B216:V216)</f>
         <v/>
       </c>
-      <c r="X216" t="n">
-        <v>0</v>
+      <c r="X216">
+        <f>VLOOKUP(A216,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y216">
         <f>X216-W216</f>
@@ -9942,8 +10150,9 @@
         <f>SUM(B217:V217)</f>
         <v/>
       </c>
-      <c r="X217" t="n">
-        <v>0</v>
+      <c r="X217">
+        <f>VLOOKUP(A217,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y217">
         <f>X217-W217</f>
@@ -10003,8 +10212,9 @@
         <f>SUM(B218:V218)</f>
         <v/>
       </c>
-      <c r="X218" t="n">
-        <v>0</v>
+      <c r="X218">
+        <f>VLOOKUP(A218,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y218">
         <f>X218-W218</f>
@@ -10028,8 +10238,9 @@
         <f>SUM(B219:V219)</f>
         <v/>
       </c>
-      <c r="X219" t="n">
-        <v>0</v>
+      <c r="X219">
+        <f>VLOOKUP(A219,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y219">
         <f>X219-W219</f>
@@ -10053,8 +10264,9 @@
         <f>SUM(B220:V220)</f>
         <v/>
       </c>
-      <c r="X220" t="n">
-        <v>0</v>
+      <c r="X220">
+        <f>VLOOKUP(A220,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y220">
         <f>X220-W220</f>
@@ -10093,8 +10305,9 @@
         <f>SUM(B221:V221)</f>
         <v/>
       </c>
-      <c r="X221" t="n">
-        <v>0</v>
+      <c r="X221">
+        <f>VLOOKUP(A221,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y221">
         <f>X221-W221</f>
@@ -10139,8 +10352,9 @@
         <f>SUM(B222:V222)</f>
         <v/>
       </c>
-      <c r="X222" t="n">
-        <v>0</v>
+      <c r="X222">
+        <f>VLOOKUP(A222,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y222">
         <f>X222-W222</f>
@@ -10179,8 +10393,9 @@
         <f>SUM(B223:V223)</f>
         <v/>
       </c>
-      <c r="X223" t="n">
-        <v>0</v>
+      <c r="X223">
+        <f>VLOOKUP(A223,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y223">
         <f>X223-W223</f>
@@ -10213,8 +10428,9 @@
         <f>SUM(B224:V224)</f>
         <v/>
       </c>
-      <c r="X224" t="n">
-        <v>0</v>
+      <c r="X224">
+        <f>VLOOKUP(A224,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y224">
         <f>X224-W224</f>
@@ -10256,8 +10472,9 @@
         <f>SUM(B225:V225)</f>
         <v/>
       </c>
-      <c r="X225" t="n">
-        <v>0</v>
+      <c r="X225">
+        <f>VLOOKUP(A225,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y225">
         <f>X225-W225</f>
@@ -10293,8 +10510,9 @@
         <f>SUM(B226:V226)</f>
         <v/>
       </c>
-      <c r="X226" t="n">
-        <v>0</v>
+      <c r="X226">
+        <f>VLOOKUP(A226,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y226">
         <f>X226-W226</f>
@@ -10360,8 +10578,9 @@
         <f>SUM(B227:V227)</f>
         <v/>
       </c>
-      <c r="X227" t="n">
-        <v>0</v>
+      <c r="X227">
+        <f>VLOOKUP(A227,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y227">
         <f>X227-W227</f>
@@ -10412,8 +10631,9 @@
         <f>SUM(B228:V228)</f>
         <v/>
       </c>
-      <c r="X228" t="n">
-        <v>0</v>
+      <c r="X228">
+        <f>VLOOKUP(A228,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y228">
         <f>X228-W228</f>
@@ -10437,8 +10657,9 @@
         <f>SUM(B229:V229)</f>
         <v/>
       </c>
-      <c r="X229" t="n">
-        <v>0</v>
+      <c r="X229">
+        <f>VLOOKUP(A229,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y229">
         <f>X229-W229</f>
@@ -10492,8 +10713,9 @@
         <f>SUM(B230:V230)</f>
         <v/>
       </c>
-      <c r="X230" t="n">
-        <v>0</v>
+      <c r="X230">
+        <f>VLOOKUP(A230,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y230">
         <f>X230-W230</f>
@@ -10517,8 +10739,9 @@
         <f>SUM(B231:V231)</f>
         <v/>
       </c>
-      <c r="X231" t="n">
-        <v>0</v>
+      <c r="X231">
+        <f>VLOOKUP(A231,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y231">
         <f>X231-W231</f>
@@ -10554,8 +10777,9 @@
         <f>SUM(B232:V232)</f>
         <v/>
       </c>
-      <c r="X232" t="n">
-        <v>0</v>
+      <c r="X232">
+        <f>VLOOKUP(A232,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y232">
         <f>X232-W232</f>
@@ -10597,8 +10821,9 @@
         <f>SUM(B233:V233)</f>
         <v/>
       </c>
-      <c r="X233" t="n">
-        <v>0</v>
+      <c r="X233">
+        <f>VLOOKUP(A233,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y233">
         <f>X233-W233</f>
@@ -10652,8 +10877,9 @@
         <f>SUM(B234:V234)</f>
         <v/>
       </c>
-      <c r="X234" t="n">
-        <v>0</v>
+      <c r="X234">
+        <f>VLOOKUP(A234,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y234">
         <f>X234-W234</f>
@@ -10701,8 +10927,9 @@
         <f>SUM(B235:V235)</f>
         <v/>
       </c>
-      <c r="X235" t="n">
-        <v>0</v>
+      <c r="X235">
+        <f>VLOOKUP(A235,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y235">
         <f>X235-W235</f>
@@ -10750,8 +10977,9 @@
         <f>SUM(B236:V236)</f>
         <v/>
       </c>
-      <c r="X236" t="n">
-        <v>0</v>
+      <c r="X236">
+        <f>VLOOKUP(A236,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y236">
         <f>X236-W236</f>
@@ -10805,8 +11033,9 @@
         <f>SUM(B237:V237)</f>
         <v/>
       </c>
-      <c r="X237" t="n">
-        <v>0</v>
+      <c r="X237">
+        <f>VLOOKUP(A237,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y237">
         <f>X237-W237</f>
@@ -10845,8 +11074,9 @@
         <f>SUM(B238:V238)</f>
         <v/>
       </c>
-      <c r="X238" t="n">
-        <v>0</v>
+      <c r="X238">
+        <f>VLOOKUP(A238,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y238">
         <f>X238-W238</f>
@@ -10867,8 +11097,9 @@
         <f>SUM(B239:V239)</f>
         <v/>
       </c>
-      <c r="X239" t="n">
-        <v>0</v>
+      <c r="X239">
+        <f>VLOOKUP(A239,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y239">
         <f>X239-W239</f>
@@ -10910,8 +11141,9 @@
         <f>SUM(B240:V240)</f>
         <v/>
       </c>
-      <c r="X240" t="n">
-        <v>0</v>
+      <c r="X240">
+        <f>VLOOKUP(A240,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y240">
         <f>X240-W240</f>
@@ -10956,8 +11188,9 @@
         <f>SUM(B241:V241)</f>
         <v/>
       </c>
-      <c r="X241" t="n">
-        <v>0</v>
+      <c r="X241">
+        <f>VLOOKUP(A241,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y241">
         <f>X241-W241</f>
@@ -10993,8 +11226,9 @@
         <f>SUM(B242:V242)</f>
         <v/>
       </c>
-      <c r="X242" t="n">
-        <v>0</v>
+      <c r="X242">
+        <f>VLOOKUP(A242,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y242">
         <f>X242-W242</f>
@@ -11027,8 +11261,9 @@
         <f>SUM(B243:V243)</f>
         <v/>
       </c>
-      <c r="X243" t="n">
-        <v>0</v>
+      <c r="X243">
+        <f>VLOOKUP(A243,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y243">
         <f>X243-W243</f>
@@ -11076,8 +11311,9 @@
         <f>SUM(B244:V244)</f>
         <v/>
       </c>
-      <c r="X244" t="n">
-        <v>0</v>
+      <c r="X244">
+        <f>VLOOKUP(A244,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y244">
         <f>X244-W244</f>
@@ -11116,8 +11352,9 @@
         <f>SUM(B245:V245)</f>
         <v/>
       </c>
-      <c r="X245" t="n">
-        <v>0</v>
+      <c r="X245">
+        <f>VLOOKUP(A245,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y245">
         <f>X245-W245</f>
@@ -11147,8 +11384,9 @@
         <f>SUM(B246:V246)</f>
         <v/>
       </c>
-      <c r="X246" t="n">
-        <v>0</v>
+      <c r="X246">
+        <f>VLOOKUP(A246,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y246">
         <f>X246-W246</f>
@@ -11187,8 +11425,9 @@
         <f>SUM(B247:V247)</f>
         <v/>
       </c>
-      <c r="X247" t="n">
-        <v>0</v>
+      <c r="X247">
+        <f>VLOOKUP(A247,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y247">
         <f>X247-W247</f>
@@ -11236,8 +11475,9 @@
         <f>SUM(B248:V248)</f>
         <v/>
       </c>
-      <c r="X248" t="n">
-        <v>0</v>
+      <c r="X248">
+        <f>VLOOKUP(A248,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y248">
         <f>X248-W248</f>
@@ -11288,8 +11528,9 @@
         <f>SUM(B249:V249)</f>
         <v/>
       </c>
-      <c r="X249" t="n">
-        <v>0</v>
+      <c r="X249">
+        <f>VLOOKUP(A249,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y249">
         <f>X249-W249</f>
@@ -11355,8 +11596,9 @@
         <f>SUM(B250:V250)</f>
         <v/>
       </c>
-      <c r="X250" t="n">
-        <v>0</v>
+      <c r="X250">
+        <f>VLOOKUP(A250,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y250">
         <f>X250-W250</f>
@@ -11401,8 +11643,9 @@
         <f>SUM(B251:V251)</f>
         <v/>
       </c>
-      <c r="X251" t="n">
-        <v>0</v>
+      <c r="X251">
+        <f>VLOOKUP(A251,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y251">
         <f>X251-W251</f>
@@ -11465,8 +11708,9 @@
         <f>SUM(B252:V252)</f>
         <v/>
       </c>
-      <c r="X252" t="n">
-        <v>0</v>
+      <c r="X252">
+        <f>VLOOKUP(A252,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y252">
         <f>X252-W252</f>
@@ -11505,8 +11749,9 @@
         <f>SUM(B253:V253)</f>
         <v/>
       </c>
-      <c r="X253" t="n">
-        <v>0</v>
+      <c r="X253">
+        <f>VLOOKUP(A253,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y253">
         <f>X253-W253</f>
@@ -11551,8 +11796,9 @@
         <f>SUM(B254:V254)</f>
         <v/>
       </c>
-      <c r="X254" t="n">
-        <v>0</v>
+      <c r="X254">
+        <f>VLOOKUP(A254,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y254">
         <f>X254-W254</f>
@@ -11588,8 +11834,9 @@
         <f>SUM(B255:V255)</f>
         <v/>
       </c>
-      <c r="X255" t="n">
-        <v>0</v>
+      <c r="X255">
+        <f>VLOOKUP(A255,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y255">
         <f>X255-W255</f>
@@ -11637,8 +11884,9 @@
         <f>SUM(B256:V256)</f>
         <v/>
       </c>
-      <c r="X256" t="n">
-        <v>0</v>
+      <c r="X256">
+        <f>VLOOKUP(A256,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y256">
         <f>X256-W256</f>
@@ -11665,8 +11913,9 @@
         <f>SUM(B257:V257)</f>
         <v/>
       </c>
-      <c r="X257" t="n">
-        <v>0</v>
+      <c r="X257">
+        <f>VLOOKUP(A257,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y257">
         <f>X257-W257</f>
@@ -11702,8 +11951,9 @@
         <f>SUM(B258:V258)</f>
         <v/>
       </c>
-      <c r="X258" t="n">
-        <v>0</v>
+      <c r="X258">
+        <f>VLOOKUP(A258,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y258">
         <f>X258-W258</f>
@@ -11742,8 +11992,9 @@
         <f>SUM(B259:V259)</f>
         <v/>
       </c>
-      <c r="X259" t="n">
-        <v>0</v>
+      <c r="X259">
+        <f>VLOOKUP(A259,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y259">
         <f>X259-W259</f>
@@ -11782,8 +12033,9 @@
         <f>SUM(B260:V260)</f>
         <v/>
       </c>
-      <c r="X260" t="n">
-        <v>0</v>
+      <c r="X260">
+        <f>VLOOKUP(A260,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y260">
         <f>X260-W260</f>
@@ -11813,8 +12065,9 @@
         <f>SUM(B261:V261)</f>
         <v/>
       </c>
-      <c r="X261" t="n">
-        <v>0</v>
+      <c r="X261">
+        <f>VLOOKUP(A261,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y261">
         <f>X261-W261</f>
@@ -11841,8 +12094,9 @@
         <f>SUM(B262:V262)</f>
         <v/>
       </c>
-      <c r="X262" t="n">
-        <v>0</v>
+      <c r="X262">
+        <f>VLOOKUP(A262,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y262">
         <f>X262-W262</f>
@@ -11863,8 +12117,9 @@
         <f>SUM(B263:V263)</f>
         <v/>
       </c>
-      <c r="X263" t="n">
-        <v>0</v>
+      <c r="X263">
+        <f>VLOOKUP(A263,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y263">
         <f>X263-W263</f>
@@ -11912,8 +12167,9 @@
         <f>SUM(B264:V264)</f>
         <v/>
       </c>
-      <c r="X264" t="n">
-        <v>0</v>
+      <c r="X264">
+        <f>VLOOKUP(A264,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y264">
         <f>X264-W264</f>
@@ -11964,8 +12220,9 @@
         <f>SUM(B265:V265)</f>
         <v/>
       </c>
-      <c r="X265" t="n">
-        <v>0</v>
+      <c r="X265">
+        <f>VLOOKUP(A265,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y265">
         <f>X265-W265</f>
@@ -12028,8 +12285,9 @@
         <f>SUM(B266:V266)</f>
         <v/>
       </c>
-      <c r="X266" t="n">
-        <v>0</v>
+      <c r="X266">
+        <f>VLOOKUP(A266,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y266">
         <f>X266-W266</f>
@@ -12089,8 +12347,9 @@
         <f>SUM(B267:V267)</f>
         <v/>
       </c>
-      <c r="X267" t="n">
-        <v>0</v>
+      <c r="X267">
+        <f>VLOOKUP(A267,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y267">
         <f>X267-W267</f>
@@ -12153,8 +12412,9 @@
         <f>SUM(B268:V268)</f>
         <v/>
       </c>
-      <c r="X268" t="n">
-        <v>0</v>
+      <c r="X268">
+        <f>VLOOKUP(A268,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y268">
         <f>X268-W268</f>
@@ -12217,8 +12477,9 @@
         <f>SUM(B269:V269)</f>
         <v/>
       </c>
-      <c r="X269" t="n">
-        <v>0</v>
+      <c r="X269">
+        <f>VLOOKUP(A269,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y269">
         <f>X269-W269</f>
@@ -12242,8 +12503,9 @@
         <f>SUM(B270:V270)</f>
         <v/>
       </c>
-      <c r="X270" t="n">
-        <v>0</v>
+      <c r="X270">
+        <f>VLOOKUP(A270,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y270">
         <f>X270-W270</f>
@@ -12264,8 +12526,9 @@
         <f>SUM(B271:V271)</f>
         <v/>
       </c>
-      <c r="X271" t="n">
-        <v>0</v>
+      <c r="X271">
+        <f>VLOOKUP(A271,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y271">
         <f>X271-W271</f>
@@ -12307,8 +12570,9 @@
         <f>SUM(B272:V272)</f>
         <v/>
       </c>
-      <c r="X272" t="n">
-        <v>0</v>
+      <c r="X272">
+        <f>VLOOKUP(A272,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y272">
         <f>X272-W272</f>
@@ -12338,8 +12602,9 @@
         <f>SUM(B273:V273)</f>
         <v/>
       </c>
-      <c r="X273" t="n">
-        <v>0</v>
+      <c r="X273">
+        <f>VLOOKUP(A273,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y273">
         <f>X273-W273</f>
@@ -12363,8 +12628,9 @@
         <f>SUM(B274:V274)</f>
         <v/>
       </c>
-      <c r="X274" t="n">
-        <v>0</v>
+      <c r="X274">
+        <f>VLOOKUP(A274,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y274">
         <f>X274-W274</f>
@@ -12394,8 +12660,9 @@
         <f>SUM(B275:V275)</f>
         <v/>
       </c>
-      <c r="X275" t="n">
-        <v>0</v>
+      <c r="X275">
+        <f>VLOOKUP(A275,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y275">
         <f>X275-W275</f>
@@ -12443,8 +12710,9 @@
         <f>SUM(B276:V276)</f>
         <v/>
       </c>
-      <c r="X276" t="n">
-        <v>0</v>
+      <c r="X276">
+        <f>VLOOKUP(A276,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y276">
         <f>X276-W276</f>
@@ -12492,8 +12760,9 @@
         <f>SUM(B277:V277)</f>
         <v/>
       </c>
-      <c r="X277" t="n">
-        <v>0</v>
+      <c r="X277">
+        <f>VLOOKUP(A277,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y277">
         <f>X277-W277</f>
@@ -12538,8 +12807,9 @@
         <f>SUM(B278:V278)</f>
         <v/>
       </c>
-      <c r="X278" t="n">
-        <v>0</v>
+      <c r="X278">
+        <f>VLOOKUP(A278,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y278">
         <f>X278-W278</f>
@@ -12584,8 +12854,9 @@
         <f>SUM(B279:V279)</f>
         <v/>
       </c>
-      <c r="X279" t="n">
-        <v>0</v>
+      <c r="X279">
+        <f>VLOOKUP(A279,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y279">
         <f>X279-W279</f>
@@ -12636,8 +12907,9 @@
         <f>SUM(B280:V280)</f>
         <v/>
       </c>
-      <c r="X280" t="n">
-        <v>0</v>
+      <c r="X280">
+        <f>VLOOKUP(A280,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y280">
         <f>X280-W280</f>
@@ -12661,8 +12933,9 @@
         <f>SUM(B281:V281)</f>
         <v/>
       </c>
-      <c r="X281" t="n">
-        <v>0</v>
+      <c r="X281">
+        <f>VLOOKUP(A281,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y281">
         <f>X281-W281</f>
@@ -12704,8 +12977,9 @@
         <f>SUM(B282:V282)</f>
         <v/>
       </c>
-      <c r="X282" t="n">
-        <v>0</v>
+      <c r="X282">
+        <f>VLOOKUP(A282,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y282">
         <f>X282-W282</f>
@@ -12750,8 +13024,9 @@
         <f>SUM(B283:V283)</f>
         <v/>
       </c>
-      <c r="X283" t="n">
-        <v>0</v>
+      <c r="X283">
+        <f>VLOOKUP(A283,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y283">
         <f>X283-W283</f>
@@ -12802,8 +13077,9 @@
         <f>SUM(B284:V284)</f>
         <v/>
       </c>
-      <c r="X284" t="n">
-        <v>0</v>
+      <c r="X284">
+        <f>VLOOKUP(A284,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y284">
         <f>X284-W284</f>
@@ -12842,8 +13118,9 @@
         <f>SUM(B285:V285)</f>
         <v/>
       </c>
-      <c r="X285" t="n">
-        <v>0</v>
+      <c r="X285">
+        <f>VLOOKUP(A285,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y285">
         <f>X285-W285</f>
@@ -12882,8 +13159,9 @@
         <f>SUM(B286:V286)</f>
         <v/>
       </c>
-      <c r="X286" t="n">
-        <v>0</v>
+      <c r="X286">
+        <f>VLOOKUP(A286,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y286">
         <f>X286-W286</f>
@@ -12925,8 +13203,9 @@
         <f>SUM(B287:V287)</f>
         <v/>
       </c>
-      <c r="X287" t="n">
-        <v>0</v>
+      <c r="X287">
+        <f>VLOOKUP(A287,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y287">
         <f>X287-W287</f>
@@ -12971,8 +13250,9 @@
         <f>SUM(B288:V288)</f>
         <v/>
       </c>
-      <c r="X288" t="n">
-        <v>0</v>
+      <c r="X288">
+        <f>VLOOKUP(A288,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y288">
         <f>X288-W288</f>
@@ -13023,8 +13303,9 @@
         <f>SUM(B289:V289)</f>
         <v/>
       </c>
-      <c r="X289" t="n">
-        <v>0</v>
+      <c r="X289">
+        <f>VLOOKUP(A289,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y289">
         <f>X289-W289</f>
@@ -13075,8 +13356,9 @@
         <f>SUM(B290:V290)</f>
         <v/>
       </c>
-      <c r="X290" t="n">
-        <v>0</v>
+      <c r="X290">
+        <f>VLOOKUP(A290,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y290">
         <f>X290-W290</f>
@@ -13118,8 +13400,9 @@
         <f>SUM(B291:V291)</f>
         <v/>
       </c>
-      <c r="X291" t="n">
-        <v>0</v>
+      <c r="X291">
+        <f>VLOOKUP(A291,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y291">
         <f>X291-W291</f>
@@ -13161,8 +13444,9 @@
         <f>SUM(B292:V292)</f>
         <v/>
       </c>
-      <c r="X292" t="n">
-        <v>0</v>
+      <c r="X292">
+        <f>VLOOKUP(A292,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y292">
         <f>X292-W292</f>
@@ -13204,8 +13488,9 @@
         <f>SUM(B293:V293)</f>
         <v/>
       </c>
-      <c r="X293" t="n">
-        <v>0</v>
+      <c r="X293">
+        <f>VLOOKUP(A293,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y293">
         <f>X293-W293</f>
@@ -13256,8 +13541,9 @@
         <f>SUM(B294:V294)</f>
         <v/>
       </c>
-      <c r="X294" t="n">
-        <v>0</v>
+      <c r="X294">
+        <f>VLOOKUP(A294,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y294">
         <f>X294-W294</f>
@@ -13308,8 +13594,9 @@
         <f>SUM(B295:V295)</f>
         <v/>
       </c>
-      <c r="X295" t="n">
-        <v>0</v>
+      <c r="X295">
+        <f>VLOOKUP(A295,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y295">
         <f>X295-W295</f>
@@ -13339,8 +13626,9 @@
         <f>SUM(B296:V296)</f>
         <v/>
       </c>
-      <c r="X296" t="n">
-        <v>0</v>
+      <c r="X296">
+        <f>VLOOKUP(A296,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y296">
         <f>X296-W296</f>
@@ -13376,8 +13664,9 @@
         <f>SUM(B297:V297)</f>
         <v/>
       </c>
-      <c r="X297" t="n">
-        <v>0</v>
+      <c r="X297">
+        <f>VLOOKUP(A297,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y297">
         <f>X297-W297</f>
@@ -13431,8 +13720,9 @@
         <f>SUM(B298:V298)</f>
         <v/>
       </c>
-      <c r="X298" t="n">
-        <v>0</v>
+      <c r="X298">
+        <f>VLOOKUP(A298,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y298">
         <f>X298-W298</f>
@@ -13468,8 +13758,9 @@
         <f>SUM(B299:V299)</f>
         <v/>
       </c>
-      <c r="X299" t="n">
-        <v>0</v>
+      <c r="X299">
+        <f>VLOOKUP(A299,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y299">
         <f>X299-W299</f>
@@ -13502,8 +13793,9 @@
         <f>SUM(B300:V300)</f>
         <v/>
       </c>
-      <c r="X300" t="n">
-        <v>0</v>
+      <c r="X300">
+        <f>VLOOKUP(A300,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y300">
         <f>X300-W300</f>
@@ -13545,8 +13837,9 @@
         <f>SUM(B301:V301)</f>
         <v/>
       </c>
-      <c r="X301" t="n">
-        <v>0</v>
+      <c r="X301">
+        <f>VLOOKUP(A301,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y301">
         <f>X301-W301</f>
@@ -13603,8 +13896,9 @@
         <f>SUM(B302:V302)</f>
         <v/>
       </c>
-      <c r="X302" t="n">
-        <v>0</v>
+      <c r="X302">
+        <f>VLOOKUP(A302,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y302">
         <f>X302-W302</f>
@@ -13643,8 +13937,9 @@
         <f>SUM(B303:V303)</f>
         <v/>
       </c>
-      <c r="X303" t="n">
-        <v>0</v>
+      <c r="X303">
+        <f>VLOOKUP(A303,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y303">
         <f>X303-W303</f>
@@ -13677,8 +13972,9 @@
         <f>SUM(B304:V304)</f>
         <v/>
       </c>
-      <c r="X304" t="n">
-        <v>0</v>
+      <c r="X304">
+        <f>VLOOKUP(A304,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y304">
         <f>X304-W304</f>
@@ -13717,8 +14013,9 @@
         <f>SUM(B305:V305)</f>
         <v/>
       </c>
-      <c r="X305" t="n">
-        <v>0</v>
+      <c r="X305">
+        <f>VLOOKUP(A305,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y305">
         <f>X305-W305</f>
@@ -13760,8 +14057,9 @@
         <f>SUM(B306:V306)</f>
         <v/>
       </c>
-      <c r="X306" t="n">
-        <v>0</v>
+      <c r="X306">
+        <f>VLOOKUP(A306,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y306">
         <f>X306-W306</f>
@@ -13818,8 +14116,9 @@
         <f>SUM(B307:V307)</f>
         <v/>
       </c>
-      <c r="X307" t="n">
-        <v>0</v>
+      <c r="X307">
+        <f>VLOOKUP(A307,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y307">
         <f>X307-W307</f>
@@ -13876,8 +14175,9 @@
         <f>SUM(B308:V308)</f>
         <v/>
       </c>
-      <c r="X308" t="n">
-        <v>0</v>
+      <c r="X308">
+        <f>VLOOKUP(A308,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y308">
         <f>X308-W308</f>
@@ -13934,8 +14234,9 @@
         <f>SUM(B309:V309)</f>
         <v/>
       </c>
-      <c r="X309" t="n">
-        <v>0</v>
+      <c r="X309">
+        <f>VLOOKUP(A309,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y309">
         <f>X309-W309</f>
@@ -13992,8 +14293,9 @@
         <f>SUM(B310:V310)</f>
         <v/>
       </c>
-      <c r="X310" t="n">
-        <v>0</v>
+      <c r="X310">
+        <f>VLOOKUP(A310,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y310">
         <f>X310-W310</f>
@@ -14050,8 +14352,9 @@
         <f>SUM(B311:V311)</f>
         <v/>
       </c>
-      <c r="X311" t="n">
-        <v>0</v>
+      <c r="X311">
+        <f>VLOOKUP(A311,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y311">
         <f>X311-W311</f>
@@ -14108,8 +14411,9 @@
         <f>SUM(B312:V312)</f>
         <v/>
       </c>
-      <c r="X312" t="n">
-        <v>0</v>
+      <c r="X312">
+        <f>VLOOKUP(A312,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y312">
         <f>X312-W312</f>
@@ -14166,8 +14470,9 @@
         <f>SUM(B313:V313)</f>
         <v/>
       </c>
-      <c r="X313" t="n">
-        <v>0</v>
+      <c r="X313">
+        <f>VLOOKUP(A313,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y313">
         <f>X313-W313</f>
@@ -14212,8 +14517,9 @@
         <f>SUM(B314:V314)</f>
         <v/>
       </c>
-      <c r="X314" t="n">
-        <v>0</v>
+      <c r="X314">
+        <f>VLOOKUP(A314,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y314">
         <f>X314-W314</f>
@@ -14249,8 +14555,9 @@
         <f>SUM(B315:V315)</f>
         <v/>
       </c>
-      <c r="X315" t="n">
-        <v>0</v>
+      <c r="X315">
+        <f>VLOOKUP(A315,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y315">
         <f>X315-W315</f>
@@ -14283,8 +14590,9 @@
         <f>SUM(B316:V316)</f>
         <v/>
       </c>
-      <c r="X316" t="n">
-        <v>0</v>
+      <c r="X316">
+        <f>VLOOKUP(A316,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y316">
         <f>X316-W316</f>
@@ -14317,8 +14625,9 @@
         <f>SUM(B317:V317)</f>
         <v/>
       </c>
-      <c r="X317" t="n">
-        <v>0</v>
+      <c r="X317">
+        <f>VLOOKUP(A317,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y317">
         <f>X317-W317</f>
@@ -14351,8 +14660,9 @@
         <f>SUM(B318:V318)</f>
         <v/>
       </c>
-      <c r="X318" t="n">
-        <v>0</v>
+      <c r="X318">
+        <f>VLOOKUP(A318,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y318">
         <f>X318-W318</f>
@@ -14415,8 +14725,9 @@
         <f>SUM(B319:V319)</f>
         <v/>
       </c>
-      <c r="X319" t="n">
-        <v>0</v>
+      <c r="X319">
+        <f>VLOOKUP(A319,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y319">
         <f>X319-W319</f>
@@ -14452,8 +14763,9 @@
         <f>SUM(B320:V320)</f>
         <v/>
       </c>
-      <c r="X320" t="n">
-        <v>0</v>
+      <c r="X320">
+        <f>VLOOKUP(A320,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y320">
         <f>X320-W320</f>
@@ -14492,8 +14804,9 @@
         <f>SUM(B321:V321)</f>
         <v/>
       </c>
-      <c r="X321" t="n">
-        <v>0</v>
+      <c r="X321">
+        <f>VLOOKUP(A321,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y321">
         <f>X321-W321</f>
@@ -14526,8 +14839,9 @@
         <f>SUM(B322:V322)</f>
         <v/>
       </c>
-      <c r="X322" t="n">
-        <v>0</v>
+      <c r="X322">
+        <f>VLOOKUP(A322,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y322">
         <f>X322-W322</f>
@@ -14581,8 +14895,9 @@
         <f>SUM(B323:V323)</f>
         <v/>
       </c>
-      <c r="X323" t="n">
-        <v>0</v>
+      <c r="X323">
+        <f>VLOOKUP(A323,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y323">
         <f>X323-W323</f>
@@ -14615,8 +14930,9 @@
         <f>SUM(B324:V324)</f>
         <v/>
       </c>
-      <c r="X324" t="n">
-        <v>0</v>
+      <c r="X324">
+        <f>VLOOKUP(A324,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y324">
         <f>X324-W324</f>
@@ -14655,8 +14971,9 @@
         <f>SUM(B325:V325)</f>
         <v/>
       </c>
-      <c r="X325" t="n">
-        <v>0</v>
+      <c r="X325">
+        <f>VLOOKUP(A325,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y325">
         <f>X325-W325</f>
@@ -14689,8 +15006,9 @@
         <f>SUM(B326:V326)</f>
         <v/>
       </c>
-      <c r="X326" t="n">
-        <v>0</v>
+      <c r="X326">
+        <f>VLOOKUP(A326,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y326">
         <f>X326-W326</f>
@@ -14732,8 +15050,9 @@
         <f>SUM(B327:V327)</f>
         <v/>
       </c>
-      <c r="X327" t="n">
-        <v>0</v>
+      <c r="X327">
+        <f>VLOOKUP(A327,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y327">
         <f>X327-W327</f>
@@ -14766,8 +15085,9 @@
         <f>SUM(B328:V328)</f>
         <v/>
       </c>
-      <c r="X328" t="n">
-        <v>0</v>
+      <c r="X328">
+        <f>VLOOKUP(A328,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y328">
         <f>X328-W328</f>
@@ -14797,8 +15117,9 @@
         <f>SUM(B329:V329)</f>
         <v/>
       </c>
-      <c r="X329" t="n">
-        <v>0</v>
+      <c r="X329">
+        <f>VLOOKUP(A329,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y329">
         <f>X329-W329</f>
@@ -14831,8 +15152,9 @@
         <f>SUM(B330:V330)</f>
         <v/>
       </c>
-      <c r="X330" t="n">
-        <v>0</v>
+      <c r="X330">
+        <f>VLOOKUP(A330,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y330">
         <f>X330-W330</f>
@@ -14901,8 +15223,9 @@
         <f>SUM(B331:V331)</f>
         <v/>
       </c>
-      <c r="X331" t="n">
-        <v>0</v>
+      <c r="X331">
+        <f>VLOOKUP(A331,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y331">
         <f>X331-W331</f>
@@ -14971,8 +15294,9 @@
         <f>SUM(B332:V332)</f>
         <v/>
       </c>
-      <c r="X332" t="n">
-        <v>0</v>
+      <c r="X332">
+        <f>VLOOKUP(A332,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y332">
         <f>X332-W332</f>
@@ -15041,8 +15365,9 @@
         <f>SUM(B333:V333)</f>
         <v/>
       </c>
-      <c r="X333" t="n">
-        <v>0</v>
+      <c r="X333">
+        <f>VLOOKUP(A333,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y333">
         <f>X333-W333</f>
@@ -15108,8 +15433,9 @@
         <f>SUM(B334:V334)</f>
         <v/>
       </c>
-      <c r="X334" t="n">
-        <v>0</v>
+      <c r="X334">
+        <f>VLOOKUP(A334,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y334">
         <f>X334-W334</f>
@@ -15178,8 +15504,9 @@
         <f>SUM(B335:V335)</f>
         <v/>
       </c>
-      <c r="X335" t="n">
-        <v>0</v>
+      <c r="X335">
+        <f>VLOOKUP(A335,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y335">
         <f>X335-W335</f>
@@ -15245,8 +15572,9 @@
         <f>SUM(B336:V336)</f>
         <v/>
       </c>
-      <c r="X336" t="n">
-        <v>0</v>
+      <c r="X336">
+        <f>VLOOKUP(A336,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y336">
         <f>X336-W336</f>
@@ -15309,8 +15637,9 @@
         <f>SUM(B337:V337)</f>
         <v/>
       </c>
-      <c r="X337" t="n">
-        <v>0</v>
+      <c r="X337">
+        <f>VLOOKUP(A337,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y337">
         <f>X337-W337</f>
@@ -15361,8 +15690,9 @@
         <f>SUM(B338:V338)</f>
         <v/>
       </c>
-      <c r="X338" t="n">
-        <v>0</v>
+      <c r="X338">
+        <f>VLOOKUP(A338,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y338">
         <f>X338-W338</f>
@@ -15407,8 +15737,9 @@
         <f>SUM(B339:V339)</f>
         <v/>
       </c>
-      <c r="X339" t="n">
-        <v>0</v>
+      <c r="X339">
+        <f>VLOOKUP(A339,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y339">
         <f>X339-W339</f>
@@ -15471,8 +15802,9 @@
         <f>SUM(B340:V340)</f>
         <v/>
       </c>
-      <c r="X340" t="n">
-        <v>0</v>
+      <c r="X340">
+        <f>VLOOKUP(A340,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y340">
         <f>X340-W340</f>
@@ -15526,8 +15858,9 @@
         <f>SUM(B341:V341)</f>
         <v/>
       </c>
-      <c r="X341" t="n">
-        <v>0</v>
+      <c r="X341">
+        <f>VLOOKUP(A341,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y341">
         <f>X341-W341</f>
@@ -15560,8 +15893,9 @@
         <f>SUM(B342:V342)</f>
         <v/>
       </c>
-      <c r="X342" t="n">
-        <v>0</v>
+      <c r="X342">
+        <f>VLOOKUP(A342,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y342">
         <f>X342-W342</f>
@@ -15585,8 +15919,9 @@
         <f>SUM(B343:V343)</f>
         <v/>
       </c>
-      <c r="X343" t="n">
-        <v>0</v>
+      <c r="X343">
+        <f>VLOOKUP(A343,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y343">
         <f>X343-W343</f>
@@ -15607,8 +15942,9 @@
         <f>SUM(B344:V344)</f>
         <v/>
       </c>
-      <c r="X344" t="n">
-        <v>0</v>
+      <c r="X344">
+        <f>VLOOKUP(A344,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y344">
         <f>X344-W344</f>
@@ -15629,8 +15965,9 @@
         <f>SUM(B345:V345)</f>
         <v/>
       </c>
-      <c r="X345" t="n">
-        <v>0</v>
+      <c r="X345">
+        <f>VLOOKUP(A345,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y345">
         <f>X345-W345</f>
@@ -15654,8 +15991,9 @@
         <f>SUM(B346:V346)</f>
         <v/>
       </c>
-      <c r="X346" t="n">
-        <v>0</v>
+      <c r="X346">
+        <f>VLOOKUP(A346,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y346">
         <f>X346-W346</f>
@@ -15712,8 +16050,9 @@
         <f>SUM(B347:V347)</f>
         <v/>
       </c>
-      <c r="X347" t="n">
-        <v>0</v>
+      <c r="X347">
+        <f>VLOOKUP(A347,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y347">
         <f>X347-W347</f>
@@ -15749,8 +16088,9 @@
         <f>SUM(B348:V348)</f>
         <v/>
       </c>
-      <c r="X348" t="n">
-        <v>0</v>
+      <c r="X348">
+        <f>VLOOKUP(A348,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y348">
         <f>X348-W348</f>
@@ -15801,8 +16141,9 @@
         <f>SUM(B349:V349)</f>
         <v/>
       </c>
-      <c r="X349" t="n">
-        <v>0</v>
+      <c r="X349">
+        <f>VLOOKUP(A349,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y349">
         <f>X349-W349</f>
@@ -15856,8 +16197,9 @@
         <f>SUM(B350:V350)</f>
         <v/>
       </c>
-      <c r="X350" t="n">
-        <v>0</v>
+      <c r="X350">
+        <f>VLOOKUP(A350,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y350">
         <f>X350-W350</f>
@@ -15896,8 +16238,9 @@
         <f>SUM(B351:V351)</f>
         <v/>
       </c>
-      <c r="X351" t="n">
-        <v>0</v>
+      <c r="X351">
+        <f>VLOOKUP(A351,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y351">
         <f>X351-W351</f>
@@ -15942,8 +16285,9 @@
         <f>SUM(B352:V352)</f>
         <v/>
       </c>
-      <c r="X352" t="n">
-        <v>0</v>
+      <c r="X352">
+        <f>VLOOKUP(A352,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y352">
         <f>X352-W352</f>
@@ -16003,8 +16347,9 @@
         <f>SUM(B353:V353)</f>
         <v/>
       </c>
-      <c r="X353" t="n">
-        <v>0</v>
+      <c r="X353">
+        <f>VLOOKUP(A353,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y353">
         <f>X353-W353</f>
@@ -16055,8 +16400,9 @@
         <f>SUM(B354:V354)</f>
         <v/>
       </c>
-      <c r="X354" t="n">
-        <v>0</v>
+      <c r="X354">
+        <f>VLOOKUP(A354,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y354">
         <f>X354-W354</f>
@@ -16116,8 +16462,9 @@
         <f>SUM(B355:V355)</f>
         <v/>
       </c>
-      <c r="X355" t="n">
-        <v>0</v>
+      <c r="X355">
+        <f>VLOOKUP(A355,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y355">
         <f>X355-W355</f>
@@ -16174,8 +16521,9 @@
         <f>SUM(B356:V356)</f>
         <v/>
       </c>
-      <c r="X356" t="n">
-        <v>0</v>
+      <c r="X356">
+        <f>VLOOKUP(A356,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y356">
         <f>X356-W356</f>
@@ -16220,8 +16568,9 @@
         <f>SUM(B357:V357)</f>
         <v/>
       </c>
-      <c r="X357" t="n">
-        <v>0</v>
+      <c r="X357">
+        <f>VLOOKUP(A357,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y357">
         <f>X357-W357</f>
@@ -16272,8 +16621,9 @@
         <f>SUM(B358:V358)</f>
         <v/>
       </c>
-      <c r="X358" t="n">
-        <v>0</v>
+      <c r="X358">
+        <f>VLOOKUP(A358,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y358">
         <f>X358-W358</f>
@@ -16333,8 +16683,9 @@
         <f>SUM(B359:V359)</f>
         <v/>
       </c>
-      <c r="X359" t="n">
-        <v>0</v>
+      <c r="X359">
+        <f>VLOOKUP(A359,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y359">
         <f>X359-W359</f>
@@ -16373,8 +16724,9 @@
         <f>SUM(B360:V360)</f>
         <v/>
       </c>
-      <c r="X360" t="n">
-        <v>0</v>
+      <c r="X360">
+        <f>VLOOKUP(A360,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y360">
         <f>X360-W360</f>
@@ -16407,8 +16759,9 @@
         <f>SUM(B361:V361)</f>
         <v/>
       </c>
-      <c r="X361" t="n">
-        <v>0</v>
+      <c r="X361">
+        <f>VLOOKUP(A361,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y361">
         <f>X361-W361</f>
@@ -16444,8 +16797,9 @@
         <f>SUM(B362:V362)</f>
         <v/>
       </c>
-      <c r="X362" t="n">
-        <v>0</v>
+      <c r="X362">
+        <f>VLOOKUP(A362,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y362">
         <f>X362-W362</f>
@@ -16490,8 +16844,9 @@
         <f>SUM(B363:V363)</f>
         <v/>
       </c>
-      <c r="X363" t="n">
-        <v>0</v>
+      <c r="X363">
+        <f>VLOOKUP(A363,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y363">
         <f>X363-W363</f>
@@ -16539,8 +16894,9 @@
         <f>SUM(B364:V364)</f>
         <v/>
       </c>
-      <c r="X364" t="n">
-        <v>0</v>
+      <c r="X364">
+        <f>VLOOKUP(A364,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y364">
         <f>X364-W364</f>
@@ -16579,8 +16935,9 @@
         <f>SUM(B365:V365)</f>
         <v/>
       </c>
-      <c r="X365" t="n">
-        <v>0</v>
+      <c r="X365">
+        <f>VLOOKUP(A365,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y365">
         <f>X365-W365</f>
@@ -16619,8 +16976,9 @@
         <f>SUM(B366:V366)</f>
         <v/>
       </c>
-      <c r="X366" t="n">
-        <v>0</v>
+      <c r="X366">
+        <f>VLOOKUP(A366,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y366">
         <f>X366-W366</f>
@@ -16659,8 +17017,9 @@
         <f>SUM(B367:V367)</f>
         <v/>
       </c>
-      <c r="X367" t="n">
-        <v>0</v>
+      <c r="X367">
+        <f>VLOOKUP(A367,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y367">
         <f>X367-W367</f>
@@ -16681,8 +17040,9 @@
         <f>SUM(B368:V368)</f>
         <v/>
       </c>
-      <c r="X368" t="n">
-        <v>0</v>
+      <c r="X368">
+        <f>VLOOKUP(A368,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y368">
         <f>X368-W368</f>
@@ -16730,8 +17090,9 @@
         <f>SUM(B369:V369)</f>
         <v/>
       </c>
-      <c r="X369" t="n">
-        <v>0</v>
+      <c r="X369">
+        <f>VLOOKUP(A369,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y369">
         <f>X369-W369</f>
@@ -16776,8 +17137,9 @@
         <f>SUM(B370:V370)</f>
         <v/>
       </c>
-      <c r="X370" t="n">
-        <v>0</v>
+      <c r="X370">
+        <f>VLOOKUP(A370,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y370">
         <f>X370-W370</f>
@@ -16804,8 +17166,9 @@
         <f>SUM(B371:V371)</f>
         <v/>
       </c>
-      <c r="X371" t="n">
-        <v>0</v>
+      <c r="X371">
+        <f>VLOOKUP(A371,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y371">
         <f>X371-W371</f>
@@ -16844,8 +17207,9 @@
         <f>SUM(B372:V372)</f>
         <v/>
       </c>
-      <c r="X372" t="n">
-        <v>0</v>
+      <c r="X372">
+        <f>VLOOKUP(A372,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y372">
         <f>X372-W372</f>
@@ -16875,8 +17239,9 @@
         <f>SUM(B373:V373)</f>
         <v/>
       </c>
-      <c r="X373" t="n">
-        <v>0</v>
+      <c r="X373">
+        <f>VLOOKUP(A373,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y373">
         <f>X373-W373</f>
@@ -16924,8 +17289,9 @@
         <f>SUM(B374:V374)</f>
         <v/>
       </c>
-      <c r="X374" t="n">
-        <v>0</v>
+      <c r="X374">
+        <f>VLOOKUP(A374,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y374">
         <f>X374-W374</f>
@@ -16973,8 +17339,9 @@
         <f>SUM(B375:V375)</f>
         <v/>
       </c>
-      <c r="X375" t="n">
-        <v>0</v>
+      <c r="X375">
+        <f>VLOOKUP(A375,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y375">
         <f>X375-W375</f>
@@ -17019,8 +17386,9 @@
         <f>SUM(B376:V376)</f>
         <v/>
       </c>
-      <c r="X376" t="n">
-        <v>0</v>
+      <c r="X376">
+        <f>VLOOKUP(A376,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y376">
         <f>X376-W376</f>
@@ -17077,8 +17445,9 @@
         <f>SUM(B377:V377)</f>
         <v/>
       </c>
-      <c r="X377" t="n">
-        <v>0</v>
+      <c r="X377">
+        <f>VLOOKUP(A377,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y377">
         <f>X377-W377</f>
@@ -17114,8 +17483,9 @@
         <f>SUM(B378:V378)</f>
         <v/>
       </c>
-      <c r="X378" t="n">
-        <v>0</v>
+      <c r="X378">
+        <f>VLOOKUP(A378,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y378">
         <f>X378-W378</f>
@@ -17157,8 +17527,9 @@
         <f>SUM(B379:V379)</f>
         <v/>
       </c>
-      <c r="X379" t="n">
-        <v>0</v>
+      <c r="X379">
+        <f>VLOOKUP(A379,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y379">
         <f>X379-W379</f>
@@ -17182,8 +17553,9 @@
         <f>SUM(B380:V380)</f>
         <v/>
       </c>
-      <c r="X380" t="n">
-        <v>0</v>
+      <c r="X380">
+        <f>VLOOKUP(A380,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y380">
         <f>X380-W380</f>
@@ -17237,8 +17609,9 @@
         <f>SUM(B381:V381)</f>
         <v/>
       </c>
-      <c r="X381" t="n">
-        <v>0</v>
+      <c r="X381">
+        <f>VLOOKUP(A381,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y381">
         <f>X381-W381</f>
@@ -17298,8 +17671,9 @@
         <f>SUM(B382:V382)</f>
         <v/>
       </c>
-      <c r="X382" t="n">
-        <v>0</v>
+      <c r="X382">
+        <f>VLOOKUP(A382,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y382">
         <f>X382-W382</f>
@@ -17338,8 +17712,9 @@
         <f>SUM(B383:V383)</f>
         <v/>
       </c>
-      <c r="X383" t="n">
-        <v>0</v>
+      <c r="X383">
+        <f>VLOOKUP(A383,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y383">
         <f>X383-W383</f>
@@ -17375,8 +17750,9 @@
         <f>SUM(B384:V384)</f>
         <v/>
       </c>
-      <c r="X384" t="n">
-        <v>0</v>
+      <c r="X384">
+        <f>VLOOKUP(A384,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y384">
         <f>X384-W384</f>
@@ -17397,8 +17773,9 @@
         <f>SUM(B385:V385)</f>
         <v/>
       </c>
-      <c r="X385" t="n">
-        <v>0</v>
+      <c r="X385">
+        <f>VLOOKUP(A385,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y385">
         <f>X385-W385</f>
@@ -17422,8 +17799,9 @@
         <f>SUM(B386:V386)</f>
         <v/>
       </c>
-      <c r="X386" t="n">
-        <v>0</v>
+      <c r="X386">
+        <f>VLOOKUP(A386,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y386">
         <f>X386-W386</f>
@@ -17492,8 +17870,9 @@
         <f>SUM(B387:V387)</f>
         <v/>
       </c>
-      <c r="X387" t="n">
-        <v>0</v>
+      <c r="X387">
+        <f>VLOOKUP(A387,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y387">
         <f>X387-W387</f>
@@ -17514,8 +17893,9 @@
         <f>SUM(B388:V388)</f>
         <v/>
       </c>
-      <c r="X388" t="n">
-        <v>0</v>
+      <c r="X388">
+        <f>VLOOKUP(A388,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y388">
         <f>X388-W388</f>
@@ -17536,8 +17916,9 @@
         <f>SUM(B389:V389)</f>
         <v/>
       </c>
-      <c r="X389" t="n">
-        <v>0</v>
+      <c r="X389">
+        <f>VLOOKUP(A389,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y389">
         <f>X389-W389</f>
@@ -17558,8 +17939,9 @@
         <f>SUM(B390:V390)</f>
         <v/>
       </c>
-      <c r="X390" t="n">
-        <v>0</v>
+      <c r="X390">
+        <f>VLOOKUP(A390,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y390">
         <f>X390-W390</f>
@@ -17580,8 +17962,9 @@
         <f>SUM(B391:V391)</f>
         <v/>
       </c>
-      <c r="X391" t="n">
-        <v>0</v>
+      <c r="X391">
+        <f>VLOOKUP(A391,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y391">
         <f>X391-W391</f>
@@ -17635,8 +18018,9 @@
         <f>SUM(B392:V392)</f>
         <v/>
       </c>
-      <c r="X392" t="n">
-        <v>0</v>
+      <c r="X392">
+        <f>VLOOKUP(A392,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y392">
         <f>X392-W392</f>
@@ -17684,8 +18068,9 @@
         <f>SUM(B393:V393)</f>
         <v/>
       </c>
-      <c r="X393" t="n">
-        <v>0</v>
+      <c r="X393">
+        <f>VLOOKUP(A393,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y393">
         <f>X393-W393</f>
@@ -17745,8 +18130,9 @@
         <f>SUM(B394:V394)</f>
         <v/>
       </c>
-      <c r="X394" t="n">
-        <v>0</v>
+      <c r="X394">
+        <f>VLOOKUP(A394,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y394">
         <f>X394-W394</f>
@@ -17779,8 +18165,9 @@
         <f>SUM(B395:V395)</f>
         <v/>
       </c>
-      <c r="X395" t="n">
-        <v>0</v>
+      <c r="X395">
+        <f>VLOOKUP(A395,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y395">
         <f>X395-W395</f>
@@ -17834,8 +18221,9 @@
         <f>SUM(B396:V396)</f>
         <v/>
       </c>
-      <c r="X396" t="n">
-        <v>0</v>
+      <c r="X396">
+        <f>VLOOKUP(A396,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y396">
         <f>X396-W396</f>
@@ -17886,8 +18274,9 @@
         <f>SUM(B397:V397)</f>
         <v/>
       </c>
-      <c r="X397" t="n">
-        <v>0</v>
+      <c r="X397">
+        <f>VLOOKUP(A397,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y397">
         <f>X397-W397</f>
@@ -17932,8 +18321,9 @@
         <f>SUM(B398:V398)</f>
         <v/>
       </c>
-      <c r="X398" t="n">
-        <v>0</v>
+      <c r="X398">
+        <f>VLOOKUP(A398,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y398">
         <f>X398-W398</f>
@@ -17981,8 +18371,9 @@
         <f>SUM(B399:V399)</f>
         <v/>
       </c>
-      <c r="X399" t="n">
-        <v>0</v>
+      <c r="X399">
+        <f>VLOOKUP(A399,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y399">
         <f>X399-W399</f>
@@ -18009,8 +18400,9 @@
         <f>SUM(B400:V400)</f>
         <v/>
       </c>
-      <c r="X400" t="n">
-        <v>0</v>
+      <c r="X400">
+        <f>VLOOKUP(A400,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y400">
         <f>X400-W400</f>
@@ -18037,8 +18429,9 @@
         <f>SUM(B401:V401)</f>
         <v/>
       </c>
-      <c r="X401" t="n">
-        <v>0</v>
+      <c r="X401">
+        <f>VLOOKUP(A401,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y401">
         <f>X401-W401</f>
@@ -18080,8 +18473,9 @@
         <f>SUM(B402:V402)</f>
         <v/>
       </c>
-      <c r="X402" t="n">
-        <v>0</v>
+      <c r="X402">
+        <f>VLOOKUP(A402,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y402">
         <f>X402-W402</f>
@@ -18132,8 +18526,9 @@
         <f>SUM(B403:V403)</f>
         <v/>
       </c>
-      <c r="X403" t="n">
-        <v>0</v>
+      <c r="X403">
+        <f>VLOOKUP(A403,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y403">
         <f>X403-W403</f>
@@ -18175,8 +18570,9 @@
         <f>SUM(B404:V404)</f>
         <v/>
       </c>
-      <c r="X404" t="n">
-        <v>0</v>
+      <c r="X404">
+        <f>VLOOKUP(A404,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y404">
         <f>X404-W404</f>
@@ -18209,8 +18605,9 @@
         <f>SUM(B405:V405)</f>
         <v/>
       </c>
-      <c r="X405" t="n">
-        <v>0</v>
+      <c r="X405">
+        <f>VLOOKUP(A405,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y405">
         <f>X405-W405</f>
@@ -18258,8 +18655,9 @@
         <f>SUM(B406:V406)</f>
         <v/>
       </c>
-      <c r="X406" t="n">
-        <v>0</v>
+      <c r="X406">
+        <f>VLOOKUP(A406,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y406">
         <f>X406-W406</f>
@@ -18304,8 +18702,9 @@
         <f>SUM(B407:V407)</f>
         <v/>
       </c>
-      <c r="X407" t="n">
-        <v>0</v>
+      <c r="X407">
+        <f>VLOOKUP(A407,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y407">
         <f>X407-W407</f>
@@ -18365,8 +18764,9 @@
         <f>SUM(B408:V408)</f>
         <v/>
       </c>
-      <c r="X408" t="n">
-        <v>0</v>
+      <c r="X408">
+        <f>VLOOKUP(A408,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y408">
         <f>X408-W408</f>
@@ -18411,8 +18811,9 @@
         <f>SUM(B409:V409)</f>
         <v/>
       </c>
-      <c r="X409" t="n">
-        <v>0</v>
+      <c r="X409">
+        <f>VLOOKUP(A409,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y409">
         <f>X409-W409</f>
@@ -18433,8 +18834,9 @@
         <f>SUM(B410:V410)</f>
         <v/>
       </c>
-      <c r="X410" t="n">
-        <v>0</v>
+      <c r="X410">
+        <f>VLOOKUP(A410,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y410">
         <f>X410-W410</f>
@@ -18455,8 +18857,9 @@
         <f>SUM(B411:V411)</f>
         <v/>
       </c>
-      <c r="X411" t="n">
-        <v>0</v>
+      <c r="X411">
+        <f>VLOOKUP(A411,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y411">
         <f>X411-W411</f>
@@ -18477,8 +18880,9 @@
         <f>SUM(B412:V412)</f>
         <v/>
       </c>
-      <c r="X412" t="n">
-        <v>0</v>
+      <c r="X412">
+        <f>VLOOKUP(A412,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y412">
         <f>X412-W412</f>
@@ -18502,8 +18906,9 @@
         <f>SUM(B413:V413)</f>
         <v/>
       </c>
-      <c r="X413" t="n">
-        <v>0</v>
+      <c r="X413">
+        <f>VLOOKUP(A413,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y413">
         <f>X413-W413</f>
@@ -18524,8 +18929,9 @@
         <f>SUM(B414:V414)</f>
         <v/>
       </c>
-      <c r="X414" t="n">
-        <v>0</v>
+      <c r="X414">
+        <f>VLOOKUP(A414,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y414">
         <f>X414-W414</f>
@@ -18546,8 +18952,9 @@
         <f>SUM(B415:V415)</f>
         <v/>
       </c>
-      <c r="X415" t="n">
-        <v>0</v>
+      <c r="X415">
+        <f>VLOOKUP(A415,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y415">
         <f>X415-W415</f>
@@ -18568,8 +18975,9 @@
         <f>SUM(B416:V416)</f>
         <v/>
       </c>
-      <c r="X416" t="n">
-        <v>0</v>
+      <c r="X416">
+        <f>VLOOKUP(A416,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y416">
         <f>X416-W416</f>
@@ -18638,8 +19046,9 @@
         <f>SUM(B417:V417)</f>
         <v/>
       </c>
-      <c r="X417" t="n">
-        <v>0</v>
+      <c r="X417">
+        <f>VLOOKUP(A417,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y417">
         <f>X417-W417</f>
@@ -18708,8 +19117,9 @@
         <f>SUM(B418:V418)</f>
         <v/>
       </c>
-      <c r="X418" t="n">
-        <v>0</v>
+      <c r="X418">
+        <f>VLOOKUP(A418,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y418">
         <f>X418-W418</f>
@@ -18778,8 +19188,9 @@
         <f>SUM(B419:V419)</f>
         <v/>
       </c>
-      <c r="X419" t="n">
-        <v>0</v>
+      <c r="X419">
+        <f>VLOOKUP(A419,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y419">
         <f>X419-W419</f>
@@ -18848,8 +19259,9 @@
         <f>SUM(B420:V420)</f>
         <v/>
       </c>
-      <c r="X420" t="n">
-        <v>0</v>
+      <c r="X420">
+        <f>VLOOKUP(A420,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y420">
         <f>X420-W420</f>
@@ -18870,8 +19282,9 @@
         <f>SUM(B421:V421)</f>
         <v/>
       </c>
-      <c r="X421" t="n">
-        <v>0</v>
+      <c r="X421">
+        <f>VLOOKUP(A421,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y421">
         <f>X421-W421</f>
@@ -18892,8 +19305,9 @@
         <f>SUM(B422:V422)</f>
         <v/>
       </c>
-      <c r="X422" t="n">
-        <v>0</v>
+      <c r="X422">
+        <f>VLOOKUP(A422,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y422">
         <f>X422-W422</f>
@@ -18914,8 +19328,9 @@
         <f>SUM(B423:V423)</f>
         <v/>
       </c>
-      <c r="X423" t="n">
-        <v>0</v>
+      <c r="X423">
+        <f>VLOOKUP(A423,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y423">
         <f>X423-W423</f>
@@ -18936,8 +19351,9 @@
         <f>SUM(B424:V424)</f>
         <v/>
       </c>
-      <c r="X424" t="n">
-        <v>0</v>
+      <c r="X424">
+        <f>VLOOKUP(A424,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y424">
         <f>X424-W424</f>
@@ -19006,8 +19422,9 @@
         <f>SUM(B425:V425)</f>
         <v/>
       </c>
-      <c r="X425" t="n">
-        <v>0</v>
+      <c r="X425">
+        <f>VLOOKUP(A425,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y425">
         <f>X425-W425</f>
@@ -19076,8 +19493,9 @@
         <f>SUM(B426:V426)</f>
         <v/>
       </c>
-      <c r="X426" t="n">
-        <v>0</v>
+      <c r="X426">
+        <f>VLOOKUP(A426,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y426">
         <f>X426-W426</f>
@@ -19146,8 +19564,9 @@
         <f>SUM(B427:V427)</f>
         <v/>
       </c>
-      <c r="X427" t="n">
-        <v>0</v>
+      <c r="X427">
+        <f>VLOOKUP(A427,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y427">
         <f>X427-W427</f>
@@ -19216,8 +19635,9 @@
         <f>SUM(B428:V428)</f>
         <v/>
       </c>
-      <c r="X428" t="n">
-        <v>0</v>
+      <c r="X428">
+        <f>VLOOKUP(A428,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y428">
         <f>X428-W428</f>
@@ -19277,8 +19697,9 @@
         <f>SUM(B429:V429)</f>
         <v/>
       </c>
-      <c r="X429" t="n">
-        <v>0</v>
+      <c r="X429">
+        <f>VLOOKUP(A429,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y429">
         <f>X429-W429</f>
@@ -19338,8 +19759,9 @@
         <f>SUM(B430:V430)</f>
         <v/>
       </c>
-      <c r="X430" t="n">
-        <v>0</v>
+      <c r="X430">
+        <f>VLOOKUP(A430,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y430">
         <f>X430-W430</f>
@@ -19405,8 +19827,9 @@
         <f>SUM(B431:V431)</f>
         <v/>
       </c>
-      <c r="X431" t="n">
-        <v>0</v>
+      <c r="X431">
+        <f>VLOOKUP(A431,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y431">
         <f>X431-W431</f>
@@ -19448,8 +19871,9 @@
         <f>SUM(B432:V432)</f>
         <v/>
       </c>
-      <c r="X432" t="n">
-        <v>0</v>
+      <c r="X432">
+        <f>VLOOKUP(A432,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y432">
         <f>X432-W432</f>
@@ -19497,8 +19921,9 @@
         <f>SUM(B433:V433)</f>
         <v/>
       </c>
-      <c r="X433" t="n">
-        <v>0</v>
+      <c r="X433">
+        <f>VLOOKUP(A433,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y433">
         <f>X433-W433</f>
@@ -19564,8 +19989,9 @@
         <f>SUM(B434:V434)</f>
         <v/>
       </c>
-      <c r="X434" t="n">
-        <v>0</v>
+      <c r="X434">
+        <f>VLOOKUP(A434,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y434">
         <f>X434-W434</f>
@@ -19613,8 +20039,9 @@
         <f>SUM(B435:V435)</f>
         <v/>
       </c>
-      <c r="X435" t="n">
-        <v>0</v>
+      <c r="X435">
+        <f>VLOOKUP(A435,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y435">
         <f>X435-W435</f>
@@ -19665,8 +20092,9 @@
         <f>SUM(B436:V436)</f>
         <v/>
       </c>
-      <c r="X436" t="n">
-        <v>0</v>
+      <c r="X436">
+        <f>VLOOKUP(A436,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y436">
         <f>X436-W436</f>
@@ -19717,8 +20145,9 @@
         <f>SUM(B437:V437)</f>
         <v/>
       </c>
-      <c r="X437" t="n">
-        <v>0</v>
+      <c r="X437">
+        <f>VLOOKUP(A437,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y437">
         <f>X437-W437</f>
@@ -19784,8 +20213,9 @@
         <f>SUM(B438:V438)</f>
         <v/>
       </c>
-      <c r="X438" t="n">
-        <v>0</v>
+      <c r="X438">
+        <f>VLOOKUP(A438,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y438">
         <f>X438-W438</f>
@@ -19830,8 +20260,9 @@
         <f>SUM(B439:V439)</f>
         <v/>
       </c>
-      <c r="X439" t="n">
-        <v>0</v>
+      <c r="X439">
+        <f>VLOOKUP(A439,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y439">
         <f>X439-W439</f>
@@ -19852,8 +20283,9 @@
         <f>SUM(B440:V440)</f>
         <v/>
       </c>
-      <c r="X440" t="n">
-        <v>0</v>
+      <c r="X440">
+        <f>VLOOKUP(A440,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y440">
         <f>X440-W440</f>
@@ -19898,8 +20330,9 @@
         <f>SUM(B441:V441)</f>
         <v/>
       </c>
-      <c r="X441" t="n">
-        <v>0</v>
+      <c r="X441">
+        <f>VLOOKUP(A441,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y441">
         <f>X441-W441</f>
@@ -19944,8 +20377,9 @@
         <f>SUM(B442:V442)</f>
         <v/>
       </c>
-      <c r="X442" t="n">
-        <v>0</v>
+      <c r="X442">
+        <f>VLOOKUP(A442,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y442">
         <f>X442-W442</f>
@@ -19990,8 +20424,9 @@
         <f>SUM(B443:V443)</f>
         <v/>
       </c>
-      <c r="X443" t="n">
-        <v>0</v>
+      <c r="X443">
+        <f>VLOOKUP(A443,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y443">
         <f>X443-W443</f>
@@ -20012,8 +20447,9 @@
         <f>SUM(B444:V444)</f>
         <v/>
       </c>
-      <c r="X444" t="n">
-        <v>0</v>
+      <c r="X444">
+        <f>VLOOKUP(A444,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y444">
         <f>X444-W444</f>
@@ -20058,8 +20494,9 @@
         <f>SUM(B445:V445)</f>
         <v/>
       </c>
-      <c r="X445" t="n">
-        <v>0</v>
+      <c r="X445">
+        <f>VLOOKUP(A445,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y445">
         <f>X445-W445</f>
@@ -20101,8 +20538,9 @@
         <f>SUM(B446:V446)</f>
         <v/>
       </c>
-      <c r="X446" t="n">
-        <v>0</v>
+      <c r="X446">
+        <f>VLOOKUP(A446,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y446">
         <f>X446-W446</f>
@@ -20147,8 +20585,9 @@
         <f>SUM(B447:V447)</f>
         <v/>
       </c>
-      <c r="X447" t="n">
-        <v>0</v>
+      <c r="X447">
+        <f>VLOOKUP(A447,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y447">
         <f>X447-W447</f>
@@ -20193,8 +20632,9 @@
         <f>SUM(B448:V448)</f>
         <v/>
       </c>
-      <c r="X448" t="n">
-        <v>0</v>
+      <c r="X448">
+        <f>VLOOKUP(A448,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y448">
         <f>X448-W448</f>
@@ -20239,8 +20679,9 @@
         <f>SUM(B449:V449)</f>
         <v/>
       </c>
-      <c r="X449" t="n">
-        <v>0</v>
+      <c r="X449">
+        <f>VLOOKUP(A449,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y449">
         <f>X449-W449</f>
@@ -20273,8 +20714,9 @@
         <f>SUM(B450:V450)</f>
         <v/>
       </c>
-      <c r="X450" t="n">
-        <v>0</v>
+      <c r="X450">
+        <f>VLOOKUP(A450,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y450">
         <f>X450-W450</f>
@@ -20295,8 +20737,9 @@
         <f>SUM(B451:V451)</f>
         <v/>
       </c>
-      <c r="X451" t="n">
-        <v>0</v>
+      <c r="X451">
+        <f>VLOOKUP(A451,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y451">
         <f>X451-W451</f>
@@ -20353,8 +20796,9 @@
         <f>SUM(B452:V452)</f>
         <v/>
       </c>
-      <c r="X452" t="n">
-        <v>0</v>
+      <c r="X452">
+        <f>VLOOKUP(A452,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y452">
         <f>X452-W452</f>
@@ -20411,8 +20855,9 @@
         <f>SUM(B453:V453)</f>
         <v/>
       </c>
-      <c r="X453" t="n">
-        <v>0</v>
+      <c r="X453">
+        <f>VLOOKUP(A453,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y453">
         <f>X453-W453</f>
@@ -20466,8 +20911,9 @@
         <f>SUM(B454:V454)</f>
         <v/>
       </c>
-      <c r="X454" t="n">
-        <v>0</v>
+      <c r="X454">
+        <f>VLOOKUP(A454,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y454">
         <f>X454-W454</f>
@@ -20521,8 +20967,9 @@
         <f>SUM(B455:V455)</f>
         <v/>
       </c>
-      <c r="X455" t="n">
-        <v>0</v>
+      <c r="X455">
+        <f>VLOOKUP(A455,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y455">
         <f>X455-W455</f>
@@ -20576,8 +21023,9 @@
         <f>SUM(B456:V456)</f>
         <v/>
       </c>
-      <c r="X456" t="n">
-        <v>0</v>
+      <c r="X456">
+        <f>VLOOKUP(A456,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y456">
         <f>X456-W456</f>
@@ -20634,8 +21082,9 @@
         <f>SUM(B457:V457)</f>
         <v/>
       </c>
-      <c r="X457" t="n">
-        <v>0</v>
+      <c r="X457">
+        <f>VLOOKUP(A457,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y457">
         <f>X457-W457</f>
@@ -20689,8 +21138,9 @@
         <f>SUM(B458:V458)</f>
         <v/>
       </c>
-      <c r="X458" t="n">
-        <v>0</v>
+      <c r="X458">
+        <f>VLOOKUP(A458,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y458">
         <f>X458-W458</f>
@@ -20744,8 +21194,9 @@
         <f>SUM(B459:V459)</f>
         <v/>
       </c>
-      <c r="X459" t="n">
-        <v>0</v>
+      <c r="X459">
+        <f>VLOOKUP(A459,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y459">
         <f>X459-W459</f>
@@ -20799,8 +21250,9 @@
         <f>SUM(B460:V460)</f>
         <v/>
       </c>
-      <c r="X460" t="n">
-        <v>0</v>
+      <c r="X460">
+        <f>VLOOKUP(A460,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y460">
         <f>X460-W460</f>
@@ -20842,8 +21294,9 @@
         <f>SUM(B461:V461)</f>
         <v/>
       </c>
-      <c r="X461" t="n">
-        <v>0</v>
+      <c r="X461">
+        <f>VLOOKUP(A461,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y461">
         <f>X461-W461</f>
@@ -20885,8 +21338,9 @@
         <f>SUM(B462:V462)</f>
         <v/>
       </c>
-      <c r="X462" t="n">
-        <v>0</v>
+      <c r="X462">
+        <f>VLOOKUP(A462,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y462">
         <f>X462-W462</f>
@@ -20928,8 +21382,9 @@
         <f>SUM(B463:V463)</f>
         <v/>
       </c>
-      <c r="X463" t="n">
-        <v>0</v>
+      <c r="X463">
+        <f>VLOOKUP(A463,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y463">
         <f>X463-W463</f>
@@ -20971,8 +21426,9 @@
         <f>SUM(B464:V464)</f>
         <v/>
       </c>
-      <c r="X464" t="n">
-        <v>0</v>
+      <c r="X464">
+        <f>VLOOKUP(A464,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y464">
         <f>X464-W464</f>
@@ -21008,8 +21464,9 @@
         <f>SUM(B465:V465)</f>
         <v/>
       </c>
-      <c r="X465" t="n">
-        <v>0</v>
+      <c r="X465">
+        <f>VLOOKUP(A465,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y465">
         <f>X465-W465</f>
@@ -21066,8 +21523,9 @@
         <f>SUM(B466:V466)</f>
         <v/>
       </c>
-      <c r="X466" t="n">
-        <v>0</v>
+      <c r="X466">
+        <f>VLOOKUP(A466,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y466">
         <f>X466-W466</f>
@@ -21121,8 +21579,9 @@
         <f>SUM(B467:V467)</f>
         <v/>
       </c>
-      <c r="X467" t="n">
-        <v>0</v>
+      <c r="X467">
+        <f>VLOOKUP(A467,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y467">
         <f>X467-W467</f>
@@ -21179,8 +21638,9 @@
         <f>SUM(B468:V468)</f>
         <v/>
       </c>
-      <c r="X468" t="n">
-        <v>0</v>
+      <c r="X468">
+        <f>VLOOKUP(A468,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y468">
         <f>X468-W468</f>
@@ -21243,8 +21703,9 @@
         <f>SUM(B469:V469)</f>
         <v/>
       </c>
-      <c r="X469" t="n">
-        <v>0</v>
+      <c r="X469">
+        <f>VLOOKUP(A469,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y469">
         <f>X469-W469</f>
@@ -21307,8 +21768,9 @@
         <f>SUM(B470:V470)</f>
         <v/>
       </c>
-      <c r="X470" t="n">
-        <v>0</v>
+      <c r="X470">
+        <f>VLOOKUP(A470,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y470">
         <f>X470-W470</f>
@@ -21371,8 +21833,9 @@
         <f>SUM(B471:V471)</f>
         <v/>
       </c>
-      <c r="X471" t="n">
-        <v>0</v>
+      <c r="X471">
+        <f>VLOOKUP(A471,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y471">
         <f>X471-W471</f>
@@ -21414,8 +21877,9 @@
         <f>SUM(B472:V472)</f>
         <v/>
       </c>
-      <c r="X472" t="n">
-        <v>0</v>
+      <c r="X472">
+        <f>VLOOKUP(A472,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y472">
         <f>X472-W472</f>
@@ -21460,8 +21924,9 @@
         <f>SUM(B473:V473)</f>
         <v/>
       </c>
-      <c r="X473" t="n">
-        <v>0</v>
+      <c r="X473">
+        <f>VLOOKUP(A473,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y473">
         <f>X473-W473</f>
@@ -21512,8 +21977,9 @@
         <f>SUM(B474:V474)</f>
         <v/>
       </c>
-      <c r="X474" t="n">
-        <v>0</v>
+      <c r="X474">
+        <f>VLOOKUP(A474,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y474">
         <f>X474-W474</f>
@@ -21570,8 +22036,9 @@
         <f>SUM(B475:V475)</f>
         <v/>
       </c>
-      <c r="X475" t="n">
-        <v>0</v>
+      <c r="X475">
+        <f>VLOOKUP(A475,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y475">
         <f>X475-W475</f>
@@ -21628,8 +22095,9 @@
         <f>SUM(B476:V476)</f>
         <v/>
       </c>
-      <c r="X476" t="n">
-        <v>0</v>
+      <c r="X476">
+        <f>VLOOKUP(A476,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y476">
         <f>X476-W476</f>
@@ -21686,8 +22154,9 @@
         <f>SUM(B477:V477)</f>
         <v/>
       </c>
-      <c r="X477" t="n">
-        <v>0</v>
+      <c r="X477">
+        <f>VLOOKUP(A477,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y477">
         <f>X477-W477</f>
@@ -21750,8 +22219,9 @@
         <f>SUM(B478:V478)</f>
         <v/>
       </c>
-      <c r="X478" t="n">
-        <v>0</v>
+      <c r="X478">
+        <f>VLOOKUP(A478,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y478">
         <f>X478-W478</f>
@@ -21775,8 +22245,9 @@
         <f>SUM(B479:V479)</f>
         <v/>
       </c>
-      <c r="X479" t="n">
-        <v>0</v>
+      <c r="X479">
+        <f>VLOOKUP(A479,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y479">
         <f>X479-W479</f>
@@ -21830,8 +22301,9 @@
         <f>SUM(B480:V480)</f>
         <v/>
       </c>
-      <c r="X480" t="n">
-        <v>0</v>
+      <c r="X480">
+        <f>VLOOKUP(A480,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y480">
         <f>X480-W480</f>
@@ -21885,8 +22357,9 @@
         <f>SUM(B481:V481)</f>
         <v/>
       </c>
-      <c r="X481" t="n">
-        <v>0</v>
+      <c r="X481">
+        <f>VLOOKUP(A481,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y481">
         <f>X481-W481</f>
@@ -21946,8 +22419,9 @@
         <f>SUM(B482:V482)</f>
         <v/>
       </c>
-      <c r="X482" t="n">
-        <v>0</v>
+      <c r="X482">
+        <f>VLOOKUP(A482,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y482">
         <f>X482-W482</f>
@@ -22004,8 +22478,9 @@
         <f>SUM(B483:V483)</f>
         <v/>
       </c>
-      <c r="X483" t="n">
-        <v>0</v>
+      <c r="X483">
+        <f>VLOOKUP(A483,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y483">
         <f>X483-W483</f>
@@ -22068,8 +22543,9 @@
         <f>SUM(B484:V484)</f>
         <v/>
       </c>
-      <c r="X484" t="n">
-        <v>0</v>
+      <c r="X484">
+        <f>VLOOKUP(A484,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y484">
         <f>X484-W484</f>
@@ -22090,8 +22566,9 @@
         <f>SUM(B485:V485)</f>
         <v/>
       </c>
-      <c r="X485" t="n">
-        <v>0</v>
+      <c r="X485">
+        <f>VLOOKUP(A485,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y485">
         <f>X485-W485</f>
@@ -22112,8 +22589,9 @@
         <f>SUM(B486:V486)</f>
         <v/>
       </c>
-      <c r="X486" t="n">
-        <v>0</v>
+      <c r="X486">
+        <f>VLOOKUP(A486,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y486">
         <f>X486-W486</f>
@@ -22140,8 +22618,9 @@
         <f>SUM(B487:V487)</f>
         <v/>
       </c>
-      <c r="X487" t="n">
-        <v>0</v>
+      <c r="X487">
+        <f>VLOOKUP(A487,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y487">
         <f>X487-W487</f>
@@ -22165,8 +22644,9 @@
         <f>SUM(B488:V488)</f>
         <v/>
       </c>
-      <c r="X488" t="n">
-        <v>0</v>
+      <c r="X488">
+        <f>VLOOKUP(A488,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y488">
         <f>X488-W488</f>
@@ -22187,8 +22667,9 @@
         <f>SUM(B489:V489)</f>
         <v/>
       </c>
-      <c r="X489" t="n">
-        <v>0</v>
+      <c r="X489">
+        <f>VLOOKUP(A489,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y489">
         <f>X489-W489</f>
@@ -22209,8 +22690,9 @@
         <f>SUM(B490:V490)</f>
         <v/>
       </c>
-      <c r="X490" t="n">
-        <v>0</v>
+      <c r="X490">
+        <f>VLOOKUP(A490,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y490">
         <f>X490-W490</f>
@@ -22252,8 +22734,9 @@
         <f>SUM(B491:V491)</f>
         <v/>
       </c>
-      <c r="X491" t="n">
-        <v>0</v>
+      <c r="X491">
+        <f>VLOOKUP(A491,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y491">
         <f>X491-W491</f>
@@ -22286,8 +22769,9 @@
         <f>SUM(B492:V492)</f>
         <v/>
       </c>
-      <c r="X492" t="n">
-        <v>0</v>
+      <c r="X492">
+        <f>VLOOKUP(A492,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y492">
         <f>X492-W492</f>
@@ -22314,8 +22798,9 @@
         <f>SUM(B493:V493)</f>
         <v/>
       </c>
-      <c r="X493" t="n">
-        <v>0</v>
+      <c r="X493">
+        <f>VLOOKUP(A493,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y493">
         <f>X493-W493</f>
@@ -22348,8 +22833,9 @@
         <f>SUM(B494:V494)</f>
         <v/>
       </c>
-      <c r="X494" t="n">
-        <v>0</v>
+      <c r="X494">
+        <f>VLOOKUP(A494,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y494">
         <f>X494-W494</f>
@@ -22379,8 +22865,9 @@
         <f>SUM(B495:V495)</f>
         <v/>
       </c>
-      <c r="X495" t="n">
-        <v>0</v>
+      <c r="X495">
+        <f>VLOOKUP(A495,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y495">
         <f>X495-W495</f>
@@ -22410,8 +22897,9 @@
         <f>SUM(B496:V496)</f>
         <v/>
       </c>
-      <c r="X496" t="n">
-        <v>0</v>
+      <c r="X496">
+        <f>VLOOKUP(A496,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y496">
         <f>X496-W496</f>
@@ -22441,8 +22929,9 @@
         <f>SUM(B497:V497)</f>
         <v/>
       </c>
-      <c r="X497" t="n">
-        <v>0</v>
+      <c r="X497">
+        <f>VLOOKUP(A497,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y497">
         <f>X497-W497</f>
@@ -22466,8 +22955,9 @@
         <f>SUM(B498:V498)</f>
         <v/>
       </c>
-      <c r="X498" t="n">
-        <v>0</v>
+      <c r="X498">
+        <f>VLOOKUP(A498,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y498">
         <f>X498-W498</f>
@@ -22494,8 +22984,9 @@
         <f>SUM(B499:V499)</f>
         <v/>
       </c>
-      <c r="X499" t="n">
-        <v>0</v>
+      <c r="X499">
+        <f>VLOOKUP(A499,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y499">
         <f>X499-W499</f>
@@ -22519,8 +23010,9 @@
         <f>SUM(B500:V500)</f>
         <v/>
       </c>
-      <c r="X500" t="n">
-        <v>0</v>
+      <c r="X500">
+        <f>VLOOKUP(A500,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y500">
         <f>X500-W500</f>
@@ -22547,8 +23039,9 @@
         <f>SUM(B501:V501)</f>
         <v/>
       </c>
-      <c r="X501" t="n">
-        <v>0</v>
+      <c r="X501">
+        <f>VLOOKUP(A501,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y501">
         <f>X501-W501</f>
@@ -22578,8 +23071,9 @@
         <f>SUM(B502:V502)</f>
         <v/>
       </c>
-      <c r="X502" t="n">
-        <v>0</v>
+      <c r="X502">
+        <f>VLOOKUP(A502,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y502">
         <f>X502-W502</f>
@@ -22603,8 +23097,9 @@
         <f>SUM(B503:V503)</f>
         <v/>
       </c>
-      <c r="X503" t="n">
-        <v>0</v>
+      <c r="X503">
+        <f>VLOOKUP(A503,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y503">
         <f>X503-W503</f>
@@ -22628,8 +23123,9 @@
         <f>SUM(B504:V504)</f>
         <v/>
       </c>
-      <c r="X504" t="n">
-        <v>0</v>
+      <c r="X504">
+        <f>VLOOKUP(A504,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y504">
         <f>X504-W504</f>
@@ -22659,8 +23155,9 @@
         <f>SUM(B505:V505)</f>
         <v/>
       </c>
-      <c r="X505" t="n">
-        <v>0</v>
+      <c r="X505">
+        <f>VLOOKUP(A505,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y505">
         <f>X505-W505</f>
@@ -22708,8 +23205,9 @@
         <f>SUM(B506:V506)</f>
         <v/>
       </c>
-      <c r="X506" t="n">
-        <v>0</v>
+      <c r="X506">
+        <f>VLOOKUP(A506,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y506">
         <f>X506-W506</f>
@@ -22760,8 +23258,9 @@
         <f>SUM(B507:V507)</f>
         <v/>
       </c>
-      <c r="X507" t="n">
-        <v>0</v>
+      <c r="X507">
+        <f>VLOOKUP(A507,'C:\Users\HP\Desktop\TrimphPO\Week\Master Files\[WH Closing Stock.xlsx]TII STK MBO KAM'!$A:$V,22,FALSE)</f>
+        <v/>
       </c>
       <c r="Y507">
         <f>X507-W507</f>
